--- a/files/bnss_to_crpc_mapping.xlsx
+++ b/files/bnss_to_crpc_mapping.xlsx
@@ -197,8 +197,7 @@
     <t xml:space="preserve">The term "Code" has been substituted with "Sanhita". Explanation that in case of inconsistency provisions of Special Act shall prevail.</t>
   </si>
   <si>
-    <t xml:space="preserve">2(1)(m
-)</t>
+    <t xml:space="preserve">2(1)(m)</t>
   </si>
   <si>
     <t xml:space="preserve">"judicial proceeding".</t>
@@ -288,8 +287,7 @@
     <t xml:space="preserve">2(u)</t>
   </si>
   <si>
-    <t xml:space="preserve">2(1)(w
-)</t>
+    <t xml:space="preserve">2(1)(w)</t>
   </si>
   <si>
     <t xml:space="preserve">"sub-division".</t>
@@ -313,7 +311,7 @@
     <t xml:space="preserve">"victim".</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (wa)</t>
+    <t xml:space="preserve">2(wa)</t>
   </si>
   <si>
     <t xml:space="preserve">The words "for which accused person has been charged and the expression victim” are replaced by "of the accused person" etc.</t>
@@ -2783,7 +2781,7 @@
     <t xml:space="preserve">Repeal and savings.</t>
   </si>
   <si>
-    <t xml:space="preserve">Proviso to subsection (2) (a) is excluded. In sub-section 2(b), the word "prescribed" is replaced at one place by "provided by rules" and at another place by the word
+    <t xml:space="preserve">Provision to subsection (2) (a) is excluded. In sub-section 2(b), the word "prescribed" is replaced at one place by "provided by rules" and at another place by the word
 “specified”. Proviso to subsection (2) (d) is excluded.
 In sub-section (3), the word “prescribed” is replaced by “specified”. The word “old” is replaced by “said” at many places in this section.</t>
   </si>
@@ -2909,7 +2907,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2934,19 +2932,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2958,20 +2948,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3005,8 +2987,8 @@
   </sheetPr>
   <dimension ref="A1:F561"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A553" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G557" activeCellId="0" sqref="G557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3040,7 +3022,7 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3055,13 +3037,13 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -3070,14 +3052,14 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -3086,13 +3068,13 @@
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -3104,10 +3086,10 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -3116,13 +3098,13 @@
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -3131,13 +3113,13 @@
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -3149,10 +3131,10 @@
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -3164,10 +3146,10 @@
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -3182,7 +3164,7 @@
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -3191,13 +3173,13 @@
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -3209,10 +3191,10 @@
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -3224,7 +3206,7 @@
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3"/>
@@ -3254,7 +3236,7 @@
       <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="3"/>
@@ -3269,10 +3251,10 @@
       <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10"/>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -3284,10 +3266,10 @@
       <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="10"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -3299,10 +3281,10 @@
       <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -3314,10 +3296,10 @@
       <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -3329,25 +3311,25 @@
       <c r="C21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -3359,10 +3341,10 @@
       <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -3374,10 +3356,10 @@
       <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
@@ -3389,10 +3371,10 @@
       <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
@@ -3404,10 +3386,10 @@
       <c r="C26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -3419,10 +3401,10 @@
       <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13"/>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -3437,7 +3419,7 @@
       <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -3449,10 +3431,10 @@
       <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="13"/>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -3467,7 +3449,7 @@
       <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
@@ -3476,13 +3458,13 @@
       <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -3491,13 +3473,13 @@
       <c r="B32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="13"/>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
@@ -3506,13 +3488,13 @@
       <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="13"/>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
@@ -3521,13 +3503,13 @@
       <c r="B34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
@@ -3536,13 +3518,13 @@
       <c r="B35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
@@ -3551,13 +3533,13 @@
       <c r="B36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
@@ -3566,13 +3548,13 @@
       <c r="B37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
@@ -3581,13 +3563,13 @@
       <c r="B38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
@@ -3596,13 +3578,13 @@
       <c r="B39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
@@ -3611,28 +3593,28 @@
       <c r="B40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="4" t="n">
         <v>14</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C41" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="13"/>
+      <c r="D41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
@@ -3641,13 +3623,13 @@
       <c r="B42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="4" t="n">
         <v>20</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
@@ -3656,13 +3638,13 @@
       <c r="B43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="4" t="n">
         <v>21</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
@@ -3671,13 +3653,13 @@
       <c r="B44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="13"/>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
@@ -3686,13 +3668,13 @@
       <c r="B45" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="6" t="n">
+      <c r="C45" s="4" t="n">
         <v>23</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
@@ -3701,13 +3683,13 @@
       <c r="B46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="6" t="n">
+      <c r="C46" s="4" t="n">
         <v>24</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
@@ -3716,13 +3698,13 @@
       <c r="B47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="6" t="n">
+      <c r="C47" s="4" t="n">
         <v>25</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
@@ -3737,7 +3719,7 @@
       <c r="D48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
@@ -3746,13 +3728,13 @@
       <c r="B49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="6" t="n">
+      <c r="C49" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="13"/>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
@@ -3761,13 +3743,13 @@
       <c r="B50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="4" t="n">
         <v>28</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
@@ -3776,13 +3758,13 @@
       <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="4" t="n">
         <v>29</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
@@ -3791,13 +3773,13 @@
       <c r="B52" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="13"/>
+      <c r="D52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
@@ -3806,13 +3788,13 @@
       <c r="B53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="4" t="n">
         <v>31</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="13"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
@@ -3821,13 +3803,13 @@
       <c r="B54" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="13"/>
+      <c r="D54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
@@ -3836,13 +3818,13 @@
       <c r="B55" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="6" t="n">
+      <c r="C55" s="4" t="n">
         <v>33</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
@@ -3851,13 +3833,13 @@
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="4" t="n">
         <v>34</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
@@ -3866,13 +3848,13 @@
       <c r="B57" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="6" t="n">
+      <c r="C57" s="4" t="n">
         <v>35</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
@@ -3881,28 +3863,28 @@
       <c r="B58" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="6" t="n">
+      <c r="C58" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="13"/>
+      <c r="D58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
+      <c r="A59" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="15" t="n">
+      <c r="C59" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E59" s="13"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
@@ -3911,13 +3893,13 @@
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="13"/>
+      <c r="D60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
@@ -3926,13 +3908,13 @@
       <c r="B61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="6" t="n">
+      <c r="C61" s="4" t="n">
         <v>39</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="13"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
@@ -3941,13 +3923,13 @@
       <c r="B62" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="6" t="n">
+      <c r="C62" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="13"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
@@ -3962,7 +3944,7 @@
       <c r="D63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="13"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
@@ -3977,7 +3959,7 @@
       <c r="D64" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="13"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
@@ -3992,7 +3974,7 @@
       <c r="D65" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="13"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
@@ -4004,10 +3986,10 @@
       <c r="C66" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="13"/>
+      <c r="D66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
@@ -4016,13 +3998,13 @@
       <c r="B67" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="6" t="n">
+      <c r="C67" s="4" t="n">
         <v>42</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="13"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
@@ -4031,13 +4013,13 @@
       <c r="B68" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="6" t="n">
+      <c r="C68" s="4" t="n">
         <v>43</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="13"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
@@ -4046,13 +4028,13 @@
       <c r="B69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="6" t="n">
+      <c r="C69" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="13"/>
+      <c r="D69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
@@ -4061,13 +4043,13 @@
       <c r="B70" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="6" t="n">
+      <c r="C70" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="13"/>
+      <c r="D70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
@@ -4076,13 +4058,13 @@
       <c r="B71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="6" t="n">
+      <c r="C71" s="4" t="n">
         <v>46</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
@@ -4091,13 +4073,13 @@
       <c r="B72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="13"/>
+      <c r="D72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
@@ -4106,28 +4088,28 @@
       <c r="B73" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="6" t="n">
+      <c r="C73" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="13"/>
+      <c r="D73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
+      <c r="A74" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="15" t="n">
+      <c r="C74" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="13"/>
+      <c r="D74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
@@ -4136,13 +4118,13 @@
       <c r="B75" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="6" t="n">
+      <c r="C75" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="13"/>
+      <c r="D75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
@@ -4157,7 +4139,7 @@
       <c r="D76" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
@@ -4166,13 +4148,13 @@
       <c r="B77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="6" t="n">
+      <c r="C77" s="4" t="n">
         <v>51</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E77" s="13"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
@@ -4181,13 +4163,13 @@
       <c r="B78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="6" t="n">
+      <c r="C78" s="4" t="n">
         <v>52</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E78" s="13"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
@@ -4196,13 +4178,13 @@
       <c r="B79" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="6" t="n">
+      <c r="C79" s="4" t="n">
         <v>53</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="13"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
@@ -4217,7 +4199,7 @@
       <c r="D80" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E80" s="13"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
@@ -4226,13 +4208,13 @@
       <c r="B81" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C81" s="6" t="n">
+      <c r="C81" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="13"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
@@ -4247,7 +4229,7 @@
       <c r="D82" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="13"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
@@ -4256,13 +4238,13 @@
       <c r="B83" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="6" t="n">
+      <c r="C83" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="13"/>
+      <c r="D83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
@@ -4274,10 +4256,10 @@
       <c r="C84" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="13"/>
+      <c r="D84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
@@ -4286,13 +4268,13 @@
       <c r="B85" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="6" t="n">
+      <c r="C85" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="13"/>
+      <c r="D85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
@@ -4301,28 +4283,28 @@
       <c r="B86" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="6" t="n">
+      <c r="C86" s="4" t="n">
         <v>57</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="13"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
+      <c r="A87" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="15" t="n">
+      <c r="C87" s="11" t="n">
         <v>58</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="13"/>
+      <c r="D87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
@@ -4331,13 +4313,13 @@
       <c r="B88" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="6" t="n">
+      <c r="C88" s="4" t="n">
         <v>59</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E88" s="13"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
@@ -4346,13 +4328,13 @@
       <c r="B89" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="6" t="n">
+      <c r="C89" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="13"/>
+      <c r="D89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
@@ -4364,10 +4346,10 @@
       <c r="C90" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="13"/>
+      <c r="D90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
@@ -4376,13 +4358,13 @@
       <c r="B91" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="6" t="n">
+      <c r="C91" s="4" t="n">
         <v>61</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E91" s="13"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
@@ -4391,13 +4373,13 @@
       <c r="B92" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="6" t="n">
+      <c r="C92" s="4" t="n">
         <v>62</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="13"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
@@ -4406,13 +4388,13 @@
       <c r="B93" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="6" t="n">
+      <c r="C93" s="4" t="n">
         <v>63</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E93" s="13"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
@@ -4421,13 +4403,13 @@
       <c r="B94" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="6" t="n">
+      <c r="C94" s="4" t="n">
         <v>64</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="13"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
@@ -4436,13 +4418,13 @@
       <c r="B95" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="6" t="n">
+      <c r="C95" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="13"/>
+      <c r="D95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
@@ -4451,13 +4433,13 @@
       <c r="B96" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="6" t="n">
+      <c r="C96" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="13"/>
+      <c r="D96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
@@ -4466,13 +4448,13 @@
       <c r="B97" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="6" t="n">
+      <c r="C97" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="13"/>
+      <c r="D97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
@@ -4481,13 +4463,13 @@
       <c r="B98" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="6" t="n">
+      <c r="C98" s="4" t="n">
         <v>68</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="13"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
@@ -4496,13 +4478,13 @@
       <c r="B99" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="6" t="n">
+      <c r="C99" s="4" t="n">
         <v>69</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="13"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
@@ -4511,13 +4493,13 @@
       <c r="B100" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="6" t="n">
+      <c r="C100" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="13"/>
+      <c r="D100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
@@ -4526,28 +4508,28 @@
       <c r="B101" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C101" s="6" t="n">
+      <c r="C101" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="13"/>
+      <c r="D101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C102" s="6" t="n">
+      <c r="C102" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="13"/>
+      <c r="D102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
@@ -4556,28 +4538,28 @@
       <c r="B103" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="6" t="n">
+      <c r="C103" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="13"/>
+      <c r="D103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="n">
+      <c r="A104" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C104" s="15" t="n">
+      <c r="C104" s="11" t="n">
         <v>74</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="13"/>
+      <c r="D104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
@@ -4586,13 +4568,13 @@
       <c r="B105" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C105" s="6" t="n">
+      <c r="C105" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="13"/>
+      <c r="D105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
@@ -4601,13 +4583,13 @@
       <c r="B106" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="6" t="n">
+      <c r="C106" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="13"/>
+      <c r="D106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
@@ -4616,13 +4598,13 @@
       <c r="B107" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="6" t="n">
+      <c r="C107" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="13"/>
+      <c r="D107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
@@ -4631,13 +4613,13 @@
       <c r="B108" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="6" t="n">
+      <c r="C108" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="13"/>
+      <c r="D108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
@@ -4646,13 +4628,13 @@
       <c r="B109" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="6" t="n">
+      <c r="C109" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="13"/>
+      <c r="D109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
@@ -4661,13 +4643,13 @@
       <c r="B110" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C110" s="6" t="n">
+      <c r="C110" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E110" s="13"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
@@ -4676,13 +4658,13 @@
       <c r="B111" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="6" t="n">
+      <c r="C111" s="4" t="n">
         <v>81</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E111" s="13"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
@@ -4691,13 +4673,13 @@
       <c r="B112" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C112" s="6" t="n">
+      <c r="C112" s="4" t="n">
         <v>82</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E112" s="13"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
@@ -4706,13 +4688,13 @@
       <c r="B113" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="6" t="n">
+      <c r="C113" s="4" t="n">
         <v>83</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E113" s="13"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
@@ -4721,13 +4703,13 @@
       <c r="B114" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="13"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
@@ -4736,13 +4718,13 @@
       <c r="B115" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="6" t="n">
+      <c r="C115" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="13"/>
+      <c r="D115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
@@ -4751,13 +4733,13 @@
       <c r="B116" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="6" t="n">
+      <c r="C116" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="13"/>
+      <c r="D116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
@@ -4766,13 +4748,13 @@
       <c r="B117" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="6" t="n">
+      <c r="C117" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="13"/>
+      <c r="D117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="n">
@@ -4781,13 +4763,13 @@
       <c r="B118" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="6" t="n">
+      <c r="C118" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="13"/>
+      <c r="D118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="n">
@@ -4796,28 +4778,28 @@
       <c r="B119" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="6" t="n">
+      <c r="C119" s="4" t="n">
         <v>88</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="13"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="n">
+      <c r="A120" s="11" t="n">
         <v>92</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="15" t="n">
+      <c r="C120" s="11" t="n">
         <v>89</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="n">
@@ -4826,13 +4808,13 @@
       <c r="B121" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="6" t="n">
+      <c r="C121" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="13"/>
+      <c r="D121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="n">
@@ -4841,13 +4823,13 @@
       <c r="B122" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="6" t="n">
+      <c r="C122" s="4" t="n">
         <v>91</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E122" s="13"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="n">
@@ -4856,13 +4838,13 @@
       <c r="B123" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="6" t="n">
+      <c r="C123" s="4" t="n">
         <v>92</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E123" s="13"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="n">
@@ -4871,13 +4853,13 @@
       <c r="B124" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C124" s="6" t="n">
+      <c r="C124" s="4" t="n">
         <v>93</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E124" s="13"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="n">
@@ -4886,13 +4868,13 @@
       <c r="B125" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="6" t="n">
+      <c r="C125" s="4" t="n">
         <v>94</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E125" s="13"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="n">
@@ -4901,13 +4883,13 @@
       <c r="B126" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C126" s="6" t="n">
+      <c r="C126" s="4" t="n">
         <v>95</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E126" s="13"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="n">
@@ -4916,13 +4898,13 @@
       <c r="B127" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C127" s="6" t="n">
+      <c r="C127" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="13"/>
+      <c r="D127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="n">
@@ -4931,13 +4913,13 @@
       <c r="B128" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="6" t="n">
+      <c r="C128" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="13"/>
+      <c r="D128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="n">
@@ -4946,13 +4928,13 @@
       <c r="B129" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="6" t="n">
+      <c r="C129" s="4" t="n">
         <v>98</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E129" s="13"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="n">
@@ -4961,13 +4943,13 @@
       <c r="B130" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="6" t="n">
+      <c r="C130" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="13"/>
+      <c r="D130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="n">
@@ -4976,13 +4958,13 @@
       <c r="B131" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C131" s="6" t="n">
+      <c r="C131" s="4" t="n">
         <v>100</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E131" s="13"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="n">
@@ -4991,28 +4973,28 @@
       <c r="B132" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C132" s="6" t="n">
+      <c r="C132" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="13"/>
+      <c r="D132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="n">
+      <c r="A133" s="11" t="n">
         <v>105</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E133" s="13"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="n">
@@ -5021,13 +5003,13 @@
       <c r="B134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="6" t="n">
+      <c r="C134" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="13"/>
+      <c r="D134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="n">
@@ -5036,13 +5018,13 @@
       <c r="B135" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E135" s="13"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="n">
@@ -5051,13 +5033,13 @@
       <c r="B136" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C136" s="6" t="n">
+      <c r="C136" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="13"/>
+      <c r="D136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="n">
@@ -5066,13 +5048,13 @@
       <c r="B137" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C137" s="6" t="n">
+      <c r="C137" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="13"/>
+      <c r="D137" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="n">
@@ -5081,28 +5063,28 @@
       <c r="B138" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C138" s="6" t="n">
+      <c r="C138" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="13"/>
+      <c r="D138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="13"/>
+      <c r="D139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="n">
@@ -5117,7 +5099,7 @@
       <c r="D140" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E140" s="13"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="n">
@@ -5132,7 +5114,7 @@
       <c r="D141" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E141" s="13"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="n">
@@ -5147,7 +5129,7 @@
       <c r="D142" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E142" s="13"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="n">
@@ -5159,10 +5141,10 @@
       <c r="C143" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="13"/>
+      <c r="D143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="n">
@@ -5174,10 +5156,10 @@
       <c r="C144" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="13"/>
+      <c r="D144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="n">
@@ -5189,10 +5171,10 @@
       <c r="C145" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="13"/>
+      <c r="D145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="n">
@@ -5204,25 +5186,25 @@
       <c r="C146" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" s="13"/>
+      <c r="D146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="n">
+      <c r="A147" s="11" t="n">
         <v>119</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="13"/>
+      <c r="D147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="n">
@@ -5237,7 +5219,7 @@
       <c r="D148" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E148" s="13"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="n">
@@ -5249,10 +5231,10 @@
       <c r="C149" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="13"/>
+      <c r="D149" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="n">
@@ -5264,10 +5246,10 @@
       <c r="C150" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="13"/>
+      <c r="D150" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="n">
@@ -5279,10 +5261,10 @@
       <c r="C151" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="13"/>
+      <c r="D151" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="n">
@@ -5294,10 +5276,10 @@
       <c r="C152" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="13"/>
+      <c r="D152" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="n">
@@ -5306,13 +5288,13 @@
       <c r="B153" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C153" s="6" t="n">
+      <c r="C153" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="13"/>
+      <c r="D153" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="n">
@@ -5321,13 +5303,13 @@
       <c r="B154" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C154" s="6" t="n">
+      <c r="C154" s="4" t="n">
         <v>107</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="13"/>
+      <c r="D154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="n">
@@ -5336,13 +5318,13 @@
       <c r="B155" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C155" s="6" t="n">
+      <c r="C155" s="4" t="n">
         <v>108</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E155" s="13"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="n">
@@ -5351,13 +5333,13 @@
       <c r="B156" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C156" s="6" t="n">
+      <c r="C156" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="13"/>
+      <c r="D156" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="n">
@@ -5366,28 +5348,28 @@
       <c r="B157" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C157" s="6" t="n">
+      <c r="C157" s="4" t="n">
         <v>110</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E157" s="13"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C158" s="6" t="n">
+      <c r="C158" s="4" t="n">
         <v>111</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E158" s="13"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="n">
@@ -5396,13 +5378,13 @@
       <c r="B159" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C159" s="6" t="n">
+      <c r="C159" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" s="13"/>
+      <c r="D159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="n">
@@ -5411,13 +5393,13 @@
       <c r="B160" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C160" s="6" t="n">
+      <c r="C160" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="D160" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" s="13"/>
+      <c r="D160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="n">
@@ -5426,13 +5408,13 @@
       <c r="B161" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C161" s="6" t="n">
+      <c r="C161" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="13"/>
+      <c r="D161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="n">
@@ -5441,13 +5423,13 @@
       <c r="B162" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C162" s="6" t="n">
+      <c r="C162" s="4" t="n">
         <v>115</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E162" s="13"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="n">
@@ -5456,13 +5438,13 @@
       <c r="B163" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C163" s="6" t="n">
+      <c r="C163" s="4" t="n">
         <v>116</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E163" s="13"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="n">
@@ -5471,13 +5453,13 @@
       <c r="B164" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C164" s="6" t="n">
+      <c r="C164" s="4" t="n">
         <v>117</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E164" s="13"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="n">
@@ -5486,28 +5468,28 @@
       <c r="B165" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C165" s="6" t="n">
+      <c r="C165" s="4" t="n">
         <v>118</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="13"/>
+      <c r="D165" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="n">
+      <c r="A166" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C166" s="15" t="n">
+      <c r="C166" s="11" t="n">
         <v>119</v>
       </c>
-      <c r="D166" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="13"/>
+      <c r="D166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="n">
@@ -5516,13 +5498,13 @@
       <c r="B167" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C167" s="6" t="n">
+      <c r="C167" s="4" t="n">
         <v>120</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E167" s="13"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="n">
@@ -5531,13 +5513,13 @@
       <c r="B168" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C168" s="6" t="n">
+      <c r="C168" s="4" t="n">
         <v>121</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E168" s="13"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="n">
@@ -5546,13 +5528,13 @@
       <c r="B169" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C169" s="6" t="n">
+      <c r="C169" s="4" t="n">
         <v>122</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E169" s="13"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="n">
@@ -5561,13 +5543,13 @@
       <c r="B170" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C170" s="6" t="n">
+      <c r="C170" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="D170" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="13"/>
+      <c r="D170" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="n">
@@ -5576,13 +5558,13 @@
       <c r="B171" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C171" s="6" t="n">
+      <c r="C171" s="4" t="n">
         <v>124</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E171" s="13"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="n">
@@ -5591,28 +5573,28 @@
       <c r="B172" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C172" s="6" t="n">
+      <c r="C172" s="4" t="n">
         <v>125</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E172" s="13"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="n">
         <v>145</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C173" s="6" t="n">
+      <c r="C173" s="4" t="n">
         <v>126</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E173" s="13"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="n">
@@ -5621,13 +5603,13 @@
       <c r="B174" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C174" s="6" t="n">
+      <c r="C174" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="D174" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="13"/>
+      <c r="D174" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="n">
@@ -5636,13 +5618,13 @@
       <c r="B175" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C175" s="6" t="n">
+      <c r="C175" s="4" t="n">
         <v>128</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="13"/>
+      <c r="D175" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="n">
@@ -5651,13 +5633,13 @@
       <c r="B176" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C176" s="6" t="n">
+      <c r="C176" s="4" t="n">
         <v>129</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="13"/>
+      <c r="D176" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="n">
@@ -5666,13 +5648,13 @@
       <c r="B177" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C177" s="6" t="n">
+      <c r="C177" s="4" t="n">
         <v>130</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E177" s="13"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="n">
@@ -5681,13 +5663,13 @@
       <c r="B178" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C178" s="6" t="n">
+      <c r="C178" s="4" t="n">
         <v>131</v>
       </c>
-      <c r="D178" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="13"/>
+      <c r="D178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="n">
@@ -5696,13 +5678,13 @@
       <c r="B179" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C179" s="6" t="n">
+      <c r="C179" s="4" t="n">
         <v>132</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E179" s="13"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="n">
@@ -5711,13 +5693,13 @@
       <c r="B180" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C180" s="6" t="n">
+      <c r="C180" s="4" t="n">
         <v>133</v>
       </c>
-      <c r="D180" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="13"/>
+      <c r="D180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="n">
@@ -5726,13 +5708,13 @@
       <c r="B181" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C181" s="6" t="n">
+      <c r="C181" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="D181" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="13"/>
+      <c r="D181" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="n">
@@ -5741,28 +5723,28 @@
       <c r="B182" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C182" s="6" t="n">
+      <c r="C182" s="4" t="n">
         <v>135</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E182" s="13"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="n">
+      <c r="A183" s="11" t="n">
         <v>155</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C183" s="15" t="n">
+      <c r="C183" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E183" s="13"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="n">
@@ -5771,13 +5753,13 @@
       <c r="B184" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C184" s="6" t="n">
+      <c r="C184" s="4" t="n">
         <v>137</v>
       </c>
-      <c r="D184" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="13"/>
+      <c r="D184" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="n">
@@ -5786,13 +5768,13 @@
       <c r="B185" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C185" s="6" t="n">
+      <c r="C185" s="4" t="n">
         <v>138</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E185" s="13"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="n">
@@ -5801,13 +5783,13 @@
       <c r="B186" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C186" s="6" t="n">
+      <c r="C186" s="4" t="n">
         <v>139</v>
       </c>
-      <c r="D186" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="13"/>
+      <c r="D186" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="n">
@@ -5816,13 +5798,13 @@
       <c r="B187" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C187" s="6" t="n">
+      <c r="C187" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="13"/>
+      <c r="D187" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="n">
@@ -5831,13 +5813,13 @@
       <c r="B188" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C188" s="6" t="n">
+      <c r="C188" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="D188" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="13"/>
+      <c r="D188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="n">
@@ -5846,13 +5828,13 @@
       <c r="B189" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C189" s="6" t="n">
+      <c r="C189" s="4" t="n">
         <v>142</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="13"/>
+      <c r="D189" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="n">
@@ -5861,13 +5843,13 @@
       <c r="B190" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C190" s="6" t="n">
+      <c r="C190" s="4" t="n">
         <v>143</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E190" s="13"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="n">
@@ -5876,13 +5858,13 @@
       <c r="B191" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C191" s="6" t="n">
+      <c r="C191" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="D191" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="13"/>
+      <c r="D191" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="n">
@@ -5891,13 +5873,13 @@
       <c r="B192" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C192" s="6" t="n">
+      <c r="C192" s="4" t="n">
         <v>145</v>
       </c>
-      <c r="D192" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="13"/>
+      <c r="D192" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="n">
@@ -5906,13 +5888,13 @@
       <c r="B193" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C193" s="6" t="n">
+      <c r="C193" s="4" t="n">
         <v>146</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="13"/>
+      <c r="D193" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="n">
@@ -5921,13 +5903,13 @@
       <c r="B194" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C194" s="6" t="n">
+      <c r="C194" s="4" t="n">
         <v>147</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E194" s="13"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="n">
@@ -5936,13 +5918,13 @@
       <c r="B195" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C195" s="6" t="n">
+      <c r="C195" s="4" t="n">
         <v>148</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E195" s="13"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="n">
@@ -5951,13 +5933,13 @@
       <c r="B196" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C196" s="6" t="n">
+      <c r="C196" s="4" t="n">
         <v>149</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="13"/>
+      <c r="D196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="n">
@@ -5966,28 +5948,28 @@
       <c r="B197" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C197" s="6" t="n">
+      <c r="C197" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="13"/>
+      <c r="D197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="n">
+      <c r="A198" s="11" t="n">
         <v>170</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C198" s="15" t="n">
+      <c r="C198" s="11" t="n">
         <v>151</v>
       </c>
-      <c r="D198" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="13"/>
+      <c r="D198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="n">
@@ -5996,13 +5978,13 @@
       <c r="B199" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C199" s="6" t="n">
+      <c r="C199" s="4" t="n">
         <v>152</v>
       </c>
-      <c r="D199" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="13"/>
+      <c r="D199" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="123.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="n">
@@ -6011,13 +5993,13 @@
       <c r="B200" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D200" s="16" t="s">
+      <c r="D200" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E200" s="13"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="193.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="n">
@@ -6026,13 +6008,13 @@
       <c r="B201" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C201" s="6" t="n">
+      <c r="C201" s="4" t="n">
         <v>154</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E201" s="13"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="n">
@@ -6041,13 +6023,13 @@
       <c r="B202" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C202" s="6" t="n">
+      <c r="C202" s="4" t="n">
         <v>155</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E202" s="13"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="n">
@@ -6056,28 +6038,28 @@
       <c r="B203" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C203" s="6" t="n">
+      <c r="C203" s="4" t="n">
         <v>156</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E203" s="13"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="n">
         <v>176</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C204" s="6" t="n">
+      <c r="C204" s="4" t="n">
         <v>157</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E204" s="13"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="n">
@@ -6086,28 +6068,28 @@
       <c r="B205" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C205" s="6" t="n">
+      <c r="C205" s="4" t="n">
         <v>158</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="13"/>
+      <c r="D205" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="n">
+      <c r="A206" s="11" t="n">
         <v>178</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C206" s="15" t="n">
+      <c r="C206" s="11" t="n">
         <v>159</v>
       </c>
-      <c r="D206" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="13"/>
+      <c r="D206" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="n">
@@ -6116,13 +6098,13 @@
       <c r="B207" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C207" s="6" t="n">
+      <c r="C207" s="4" t="n">
         <v>160</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E207" s="13"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="n">
@@ -6131,13 +6113,13 @@
       <c r="B208" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C208" s="6" t="n">
+      <c r="C208" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="D208" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="13"/>
+      <c r="D208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="n">
@@ -6146,13 +6128,13 @@
       <c r="B209" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C209" s="6" t="n">
+      <c r="C209" s="4" t="n">
         <v>162</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E209" s="13"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="n">
@@ -6161,13 +6143,13 @@
       <c r="B210" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C210" s="6" t="n">
+      <c r="C210" s="4" t="n">
         <v>163</v>
       </c>
-      <c r="D210" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="13"/>
+      <c r="D210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="153" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="n">
@@ -6176,13 +6158,13 @@
       <c r="B211" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C211" s="6" t="n">
+      <c r="C211" s="4" t="n">
         <v>164</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E211" s="13"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="n">
@@ -6197,7 +6179,7 @@
       <c r="D212" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E212" s="13"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="n">
@@ -6206,13 +6188,13 @@
       <c r="B213" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C213" s="6" t="n">
+      <c r="C213" s="4" t="n">
         <v>165</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E213" s="13"/>
+      <c r="E213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="n">
@@ -6221,13 +6203,13 @@
       <c r="B214" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C214" s="6" t="n">
+      <c r="C214" s="4" t="n">
         <v>166</v>
       </c>
-      <c r="D214" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="13"/>
+      <c r="D214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="n">
@@ -6236,13 +6218,13 @@
       <c r="B215" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C215" s="6" t="n">
+      <c r="C215" s="4" t="n">
         <v>167</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E215" s="13"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="n">
@@ -6251,13 +6233,13 @@
       <c r="B216" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C216" s="6" t="n">
+      <c r="C216" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="D216" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E216" s="13"/>
+      <c r="D216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="n">
@@ -6266,13 +6248,13 @@
       <c r="B217" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C217" s="6" t="n">
+      <c r="C217" s="4" t="n">
         <v>169</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E217" s="13"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="n">
@@ -6281,13 +6263,13 @@
       <c r="B218" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C218" s="6" t="n">
+      <c r="C218" s="4" t="n">
         <v>170</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E218" s="13"/>
+      <c r="E218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="n">
@@ -6296,13 +6278,13 @@
       <c r="B219" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C219" s="6" t="n">
+      <c r="C219" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="D219" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="13"/>
+      <c r="D219" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="n">
@@ -6311,13 +6293,13 @@
       <c r="B220" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C220" s="6" t="n">
+      <c r="C220" s="4" t="n">
         <v>172</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E220" s="13"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="296.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="n">
@@ -6326,13 +6308,13 @@
       <c r="B221" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C221" s="6" t="n">
+      <c r="C221" s="4" t="n">
         <v>173</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E221" s="13"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="n">
@@ -6341,13 +6323,13 @@
       <c r="B222" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C222" s="6" t="n">
+      <c r="C222" s="4" t="n">
         <v>174</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E222" s="13"/>
+      <c r="E222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="n">
@@ -6356,13 +6338,13 @@
       <c r="B223" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C223" s="6" t="n">
+      <c r="C223" s="4" t="n">
         <v>175</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E223" s="13"/>
+      <c r="E223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="n">
@@ -6371,13 +6353,13 @@
       <c r="B224" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C224" s="6" t="n">
+      <c r="C224" s="4" t="n">
         <v>176</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E224" s="13"/>
+      <c r="E224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="n">
@@ -6386,13 +6368,13 @@
       <c r="B225" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C225" s="6" t="n">
+      <c r="C225" s="4" t="n">
         <v>177</v>
       </c>
-      <c r="D225" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="13"/>
+      <c r="D225" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="n">
@@ -6401,13 +6383,13 @@
       <c r="B226" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C226" s="6" t="n">
+      <c r="C226" s="4" t="n">
         <v>178</v>
       </c>
-      <c r="D226" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="13"/>
+      <c r="D226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="n">
@@ -6416,13 +6398,13 @@
       <c r="B227" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C227" s="6" t="n">
+      <c r="C227" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="D227" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="13"/>
+      <c r="D227" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="n">
@@ -6431,13 +6413,13 @@
       <c r="B228" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C228" s="6" t="n">
+      <c r="C228" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="D228" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="13"/>
+      <c r="D228" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="n">
@@ -6446,13 +6428,13 @@
       <c r="B229" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C229" s="6" t="n">
+      <c r="C229" s="4" t="n">
         <v>181</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E229" s="13"/>
+      <c r="E229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="n">
@@ -6461,28 +6443,28 @@
       <c r="B230" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C230" s="6" t="n">
+      <c r="C230" s="4" t="n">
         <v>182</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E230" s="13"/>
+      <c r="E230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="n">
+      <c r="A231" s="11" t="n">
         <v>203</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C231" s="15" t="n">
+      <c r="C231" s="11" t="n">
         <v>183</v>
       </c>
-      <c r="D231" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="13"/>
+      <c r="D231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="n">
@@ -6491,13 +6473,13 @@
       <c r="B232" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C232" s="6" t="n">
+      <c r="C232" s="4" t="n">
         <v>184</v>
       </c>
-      <c r="D232" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="13"/>
+      <c r="D232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="n">
@@ -6506,13 +6488,13 @@
       <c r="B233" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C233" s="6" t="n">
+      <c r="C233" s="4" t="n">
         <v>185</v>
       </c>
-      <c r="D233" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="13"/>
+      <c r="D233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="n">
@@ -6521,13 +6503,13 @@
       <c r="B234" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C234" s="6" t="n">
+      <c r="C234" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="D234" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="13"/>
+      <c r="D234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="n">
@@ -6536,13 +6518,13 @@
       <c r="B235" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C235" s="6" t="n">
+      <c r="C235" s="4" t="n">
         <v>187</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E235" s="13"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="n">
@@ -6551,13 +6533,13 @@
       <c r="B236" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C236" s="6" t="n">
+      <c r="C236" s="4" t="n">
         <v>188</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E236" s="13"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="n">
@@ -6566,13 +6548,13 @@
       <c r="B237" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C237" s="6" t="n">
+      <c r="C237" s="4" t="n">
         <v>189</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="E237" s="13"/>
+      <c r="E237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="n">
@@ -6581,13 +6563,13 @@
       <c r="B238" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C238" s="6" t="n">
+      <c r="C238" s="4" t="n">
         <v>190</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E238" s="13"/>
+      <c r="E238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="n">
@@ -6596,13 +6578,13 @@
       <c r="B239" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C239" s="6" t="n">
+      <c r="C239" s="4" t="n">
         <v>191</v>
       </c>
-      <c r="D239" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="13"/>
+      <c r="D239" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="n">
@@ -6611,13 +6593,13 @@
       <c r="B240" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C240" s="6" t="n">
+      <c r="C240" s="4" t="n">
         <v>192</v>
       </c>
-      <c r="D240" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" s="13"/>
+      <c r="D240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="n">
@@ -6626,13 +6608,13 @@
       <c r="B241" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C241" s="6" t="n">
+      <c r="C241" s="4" t="n">
         <v>193</v>
       </c>
-      <c r="D241" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="13"/>
+      <c r="D241" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="n">
@@ -6641,13 +6623,13 @@
       <c r="B242" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C242" s="6" t="n">
+      <c r="C242" s="4" t="n">
         <v>194</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E242" s="13"/>
+      <c r="E242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="n">
@@ -6656,13 +6638,13 @@
       <c r="B243" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C243" s="6" t="n">
+      <c r="C243" s="4" t="n">
         <v>195</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E243" s="13"/>
+      <c r="E243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="n">
@@ -6674,25 +6656,25 @@
       <c r="C244" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D244" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="13"/>
+      <c r="D244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="n">
+      <c r="A245" s="11" t="n">
         <v>217</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C245" s="15" t="n">
+      <c r="C245" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D245" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E245" s="13"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="n">
@@ -6701,13 +6683,13 @@
       <c r="B246" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C246" s="6" t="n">
+      <c r="C246" s="4" t="n">
         <v>197</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E246" s="13"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="n">
@@ -6716,13 +6698,13 @@
       <c r="B247" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C247" s="6" t="n">
+      <c r="C247" s="4" t="n">
         <v>198</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E247" s="13"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="n">
@@ -6734,10 +6716,10 @@
       <c r="C248" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D248" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E248" s="13"/>
+      <c r="D248" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="n">
@@ -6749,10 +6731,10 @@
       <c r="C249" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D249" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="13"/>
+      <c r="D249" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="n">
@@ -6761,13 +6743,13 @@
       <c r="B250" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C250" s="6" t="n">
+      <c r="C250" s="4" t="n">
         <v>199</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E250" s="13"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="192.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="n">
@@ -6776,13 +6758,13 @@
       <c r="B251" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C251" s="6" t="n">
+      <c r="C251" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E251" s="13"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="n">
@@ -6791,28 +6773,28 @@
       <c r="B252" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C252" s="6" t="n">
+      <c r="C252" s="4" t="n">
         <v>201</v>
       </c>
-      <c r="D252" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="13"/>
+      <c r="D252" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="n">
+      <c r="A253" s="11" t="n">
         <v>225</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C253" s="15" t="n">
+      <c r="C253" s="11" t="n">
         <v>202</v>
       </c>
-      <c r="D253" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" s="13"/>
+      <c r="D253" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="n">
@@ -6821,13 +6803,13 @@
       <c r="B254" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C254" s="6" t="n">
+      <c r="C254" s="4" t="n">
         <v>203</v>
       </c>
-      <c r="D254" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" s="13"/>
+      <c r="D254" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="n">
@@ -6836,13 +6818,13 @@
       <c r="B255" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C255" s="6" t="n">
+      <c r="C255" s="4" t="n">
         <v>204</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E255" s="13"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="n">
@@ -6851,13 +6833,13 @@
       <c r="B256" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C256" s="6" t="n">
+      <c r="C256" s="4" t="n">
         <v>205</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E256" s="13"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="n">
@@ -6866,13 +6848,13 @@
       <c r="B257" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C257" s="6" t="n">
+      <c r="C257" s="4" t="n">
         <v>206</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E257" s="13"/>
+      <c r="E257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="n">
@@ -6881,13 +6863,13 @@
       <c r="B258" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C258" s="6" t="n">
+      <c r="C258" s="4" t="n">
         <v>207</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E258" s="13"/>
+      <c r="E258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="n">
@@ -6896,13 +6878,13 @@
       <c r="B259" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C259" s="6" t="n">
+      <c r="C259" s="4" t="n">
         <v>208</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E259" s="13"/>
+      <c r="E259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="165.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="n">
@@ -6911,28 +6893,28 @@
       <c r="B260" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C260" s="6" t="n">
+      <c r="C260" s="4" t="n">
         <v>209</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E260" s="13"/>
+      <c r="E260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="n">
+      <c r="A261" s="11" t="n">
         <v>233</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C261" s="15" t="n">
+      <c r="C261" s="11" t="n">
         <v>210</v>
       </c>
-      <c r="D261" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="13"/>
+      <c r="D261" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="n">
@@ -6941,13 +6923,13 @@
       <c r="B262" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C262" s="6" t="n">
+      <c r="C262" s="4" t="n">
         <v>211</v>
       </c>
-      <c r="D262" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" s="13"/>
+      <c r="D262" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="n">
@@ -6956,13 +6938,13 @@
       <c r="B263" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C263" s="6" t="n">
+      <c r="C263" s="4" t="n">
         <v>212</v>
       </c>
-      <c r="D263" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="13"/>
+      <c r="D263" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="n">
@@ -6971,13 +6953,13 @@
       <c r="B264" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C264" s="6" t="n">
+      <c r="C264" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="D264" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" s="13"/>
+      <c r="D264" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="n">
@@ -6986,28 +6968,28 @@
       <c r="B265" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C265" s="6" t="n">
+      <c r="C265" s="4" t="n">
         <v>214</v>
       </c>
-      <c r="D265" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="13"/>
+      <c r="D265" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="n">
         <v>238</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C266" s="6" t="n">
+      <c r="C266" s="4" t="n">
         <v>215</v>
       </c>
-      <c r="D266" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" s="13"/>
+      <c r="D266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="n">
@@ -7016,13 +6998,13 @@
       <c r="B267" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C267" s="6" t="n">
+      <c r="C267" s="4" t="n">
         <v>216</v>
       </c>
-      <c r="D267" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E267" s="13"/>
+      <c r="D267" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="n">
@@ -7031,13 +7013,13 @@
       <c r="B268" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C268" s="6" t="n">
+      <c r="C268" s="4" t="n">
         <v>217</v>
       </c>
-      <c r="D268" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" s="13"/>
+      <c r="D268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="n">
@@ -7046,13 +7028,13 @@
       <c r="B269" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C269" s="6" t="n">
+      <c r="C269" s="4" t="n">
         <v>218</v>
       </c>
-      <c r="D269" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="13"/>
+      <c r="D269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="n">
@@ -7061,13 +7043,13 @@
       <c r="B270" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C270" s="6" t="n">
+      <c r="C270" s="4" t="n">
         <v>219</v>
       </c>
-      <c r="D270" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E270" s="13"/>
+      <c r="D270" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="n">
@@ -7076,13 +7058,13 @@
       <c r="B271" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C271" s="6" t="n">
+      <c r="C271" s="4" t="n">
         <v>220</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="E271" s="13"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="n">
@@ -7091,13 +7073,13 @@
       <c r="B272" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C272" s="6" t="n">
+      <c r="C272" s="4" t="n">
         <v>221</v>
       </c>
-      <c r="D272" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E272" s="13"/>
+      <c r="D272" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="n">
@@ -7106,13 +7088,13 @@
       <c r="B273" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C273" s="6" t="n">
+      <c r="C273" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="D273" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="13"/>
+      <c r="D273" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="n">
@@ -7121,13 +7103,13 @@
       <c r="B274" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C274" s="6" t="n">
+      <c r="C274" s="4" t="n">
         <v>223</v>
       </c>
-      <c r="D274" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="13"/>
+      <c r="D274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="n">
@@ -7136,13 +7118,13 @@
       <c r="B275" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C275" s="6" t="n">
+      <c r="C275" s="4" t="n">
         <v>224</v>
       </c>
-      <c r="D275" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="13"/>
+      <c r="D275" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="n">
@@ -7151,13 +7133,13 @@
       <c r="B276" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C276" s="6" t="n">
+      <c r="C276" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="D276" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="13"/>
+      <c r="D276" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="n">
@@ -7166,13 +7148,13 @@
       <c r="B277" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C277" s="6" t="n">
+      <c r="C277" s="4" t="n">
         <v>226</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E277" s="13"/>
+      <c r="E277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="n">
@@ -7181,28 +7163,28 @@
       <c r="B278" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C278" s="6" t="n">
+      <c r="C278" s="4" t="n">
         <v>227</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E278" s="13"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="14" t="n">
+      <c r="A279" s="11" t="n">
         <v>251</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C279" s="15" t="n">
+      <c r="C279" s="11" t="n">
         <v>228</v>
       </c>
-      <c r="D279" s="11" t="s">
+      <c r="D279" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="E279" s="13"/>
+      <c r="E279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="n">
@@ -7211,13 +7193,13 @@
       <c r="B280" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C280" s="6" t="n">
+      <c r="C280" s="4" t="n">
         <v>229</v>
       </c>
-      <c r="D280" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E280" s="13"/>
+      <c r="D280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="n">
@@ -7226,13 +7208,13 @@
       <c r="B281" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C281" s="6" t="n">
+      <c r="C281" s="4" t="n">
         <v>230</v>
       </c>
-      <c r="D281" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E281" s="13"/>
+      <c r="D281" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="n">
@@ -7241,13 +7223,13 @@
       <c r="B282" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C282" s="6" t="n">
+      <c r="C282" s="4" t="n">
         <v>231</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E282" s="13"/>
+      <c r="E282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="n">
@@ -7256,13 +7238,13 @@
       <c r="B283" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C283" s="6" t="n">
+      <c r="C283" s="4" t="n">
         <v>232</v>
       </c>
-      <c r="D283" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="13"/>
+      <c r="D283" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="n">
@@ -7271,13 +7253,13 @@
       <c r="B284" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C284" s="6" t="n">
+      <c r="C284" s="4" t="n">
         <v>233</v>
       </c>
-      <c r="D284" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="13"/>
+      <c r="D284" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="n">
@@ -7286,13 +7268,13 @@
       <c r="B285" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C285" s="6" t="n">
+      <c r="C285" s="4" t="n">
         <v>234</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E285" s="13"/>
+      <c r="E285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="n">
@@ -7301,13 +7283,13 @@
       <c r="B286" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C286" s="6" t="n">
+      <c r="C286" s="4" t="n">
         <v>235</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E286" s="13"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="n">
@@ -7316,13 +7298,13 @@
       <c r="B287" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C287" s="6" t="n">
+      <c r="C287" s="4" t="n">
         <v>236</v>
       </c>
-      <c r="D287" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" s="13"/>
+      <c r="D287" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="n">
@@ -7331,13 +7313,13 @@
       <c r="B288" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C288" s="6" t="n">
+      <c r="C288" s="4" t="n">
         <v>237</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E288" s="13"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="n">
@@ -7346,13 +7328,13 @@
       <c r="B289" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C289" s="6" t="n">
+      <c r="C289" s="4" t="n">
         <v>238</v>
       </c>
-      <c r="D289" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289" s="13"/>
+      <c r="D289" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="n">
@@ -7361,13 +7343,13 @@
       <c r="B290" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C290" s="6" t="n">
+      <c r="C290" s="4" t="n">
         <v>239</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E290" s="13"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="n">
@@ -7376,13 +7358,13 @@
       <c r="B291" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C291" s="6" t="n">
+      <c r="C291" s="4" t="n">
         <v>240</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E291" s="13"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="n">
@@ -7391,37 +7373,37 @@
       <c r="B292" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C292" s="6" t="n">
+      <c r="C292" s="4" t="n">
         <v>241</v>
       </c>
-      <c r="D292" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E292" s="13"/>
+      <c r="D292" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C293" s="6" t="n">
+      <c r="C293" s="4" t="n">
         <v>242</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E293" s="13"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="17"/>
-      <c r="B294" s="17"/>
-      <c r="C294" s="17"/>
-      <c r="D294" s="11" t="s">
+      <c r="A294" s="13"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E294" s="13"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="n">
@@ -7430,13 +7412,13 @@
       <c r="B295" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C295" s="6" t="n">
+      <c r="C295" s="4" t="n">
         <v>243</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E295" s="13"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="n">
@@ -7445,13 +7427,13 @@
       <c r="B296" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C296" s="6" t="n">
+      <c r="C296" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="D296" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" s="13"/>
+      <c r="D296" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="n">
@@ -7460,13 +7442,13 @@
       <c r="B297" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C297" s="6" t="n">
+      <c r="C297" s="4" t="n">
         <v>245</v>
       </c>
-      <c r="D297" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E297" s="13"/>
+      <c r="D297" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="n">
@@ -7475,13 +7457,13 @@
       <c r="B298" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C298" s="6" t="n">
+      <c r="C298" s="4" t="n">
         <v>246</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E298" s="13"/>
+      <c r="E298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="n">
@@ -7490,13 +7472,13 @@
       <c r="B299" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C299" s="6" t="n">
+      <c r="C299" s="4" t="n">
         <v>247</v>
       </c>
-      <c r="D299" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E299" s="13"/>
+      <c r="D299" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="n">
@@ -7505,13 +7487,13 @@
       <c r="B300" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C300" s="6" t="n">
+      <c r="C300" s="4" t="n">
         <v>248</v>
       </c>
-      <c r="D300" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E300" s="13"/>
+      <c r="D300" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="n">
@@ -7520,13 +7502,13 @@
       <c r="B301" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C301" s="6" t="n">
+      <c r="C301" s="4" t="n">
         <v>249</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E301" s="13"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="n">
@@ -7535,13 +7517,13 @@
       <c r="B302" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C302" s="6" t="n">
+      <c r="C302" s="4" t="n">
         <v>250</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E302" s="13"/>
+      <c r="E302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="n">
@@ -7550,13 +7532,13 @@
       <c r="B303" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C303" s="6" t="n">
+      <c r="C303" s="4" t="n">
         <v>251</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E303" s="13"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="n">
@@ -7565,13 +7547,13 @@
       <c r="B304" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C304" s="6" t="n">
+      <c r="C304" s="4" t="n">
         <v>252</v>
       </c>
-      <c r="D304" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E304" s="13"/>
+      <c r="D304" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="n">
@@ -7580,13 +7562,13 @@
       <c r="B305" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C305" s="6" t="n">
+      <c r="C305" s="4" t="n">
         <v>253</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E305" s="13"/>
+      <c r="E305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="n">
@@ -7595,13 +7577,13 @@
       <c r="B306" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C306" s="6" t="n">
+      <c r="C306" s="4" t="n">
         <v>254</v>
       </c>
-      <c r="D306" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E306" s="13"/>
+      <c r="D306" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="n">
@@ -7610,13 +7592,13 @@
       <c r="B307" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C307" s="6" t="n">
+      <c r="C307" s="4" t="n">
         <v>255</v>
       </c>
-      <c r="D307" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E307" s="13"/>
+      <c r="D307" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="n">
@@ -7625,13 +7607,13 @@
       <c r="B308" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C308" s="6" t="n">
+      <c r="C308" s="4" t="n">
         <v>256</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="E308" s="13"/>
+      <c r="E308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="n">
@@ -7640,13 +7622,13 @@
       <c r="B309" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C309" s="6" t="n">
+      <c r="C309" s="4" t="n">
         <v>257</v>
       </c>
-      <c r="D309" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E309" s="13"/>
+      <c r="D309" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="n">
@@ -7655,28 +7637,28 @@
       <c r="B310" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C310" s="6" t="n">
+      <c r="C310" s="4" t="n">
         <v>258</v>
       </c>
-      <c r="D310" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E310" s="13"/>
+      <c r="D310" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="14" t="n">
+      <c r="A311" s="11" t="n">
         <v>282</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C311" s="15" t="n">
+      <c r="C311" s="11" t="n">
         <v>259</v>
       </c>
-      <c r="D311" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" s="13"/>
+      <c r="D311" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="n">
@@ -7685,13 +7667,13 @@
       <c r="B312" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C312" s="6" t="n">
+      <c r="C312" s="4" t="n">
         <v>260</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="E312" s="13"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="n">
@@ -7700,13 +7682,13 @@
       <c r="B313" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C313" s="6" t="n">
+      <c r="C313" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="D313" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E313" s="13"/>
+      <c r="D313" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="n">
@@ -7715,13 +7697,13 @@
       <c r="B314" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C314" s="6" t="n">
+      <c r="C314" s="4" t="n">
         <v>262</v>
       </c>
-      <c r="D314" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" s="13"/>
+      <c r="D314" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="n">
@@ -7730,13 +7712,13 @@
       <c r="B315" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C315" s="6" t="n">
+      <c r="C315" s="4" t="n">
         <v>263</v>
       </c>
-      <c r="D315" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" s="13"/>
+      <c r="D315" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="n">
@@ -7745,13 +7727,13 @@
       <c r="B316" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C316" s="6" t="n">
+      <c r="C316" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="D316" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E316" s="13"/>
+      <c r="D316" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="n">
@@ -7760,13 +7742,13 @@
       <c r="B317" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C317" s="6" t="n">
+      <c r="C317" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="D317" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E317" s="13"/>
+      <c r="D317" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="n">
@@ -7781,7 +7763,7 @@
       <c r="D318" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="E318" s="13"/>
+      <c r="E318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="n">
@@ -7796,7 +7778,7 @@
       <c r="D319" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E319" s="13"/>
+      <c r="E319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="n">
@@ -7811,7 +7793,7 @@
       <c r="D320" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E320" s="13"/>
+      <c r="E320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="n">
@@ -7823,10 +7805,10 @@
       <c r="C321" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D321" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E321" s="13"/>
+      <c r="D321" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="n">
@@ -7841,7 +7823,7 @@
       <c r="D322" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E322" s="13"/>
+      <c r="E322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="n">
@@ -7853,10 +7835,10 @@
       <c r="C323" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D323" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E323" s="13"/>
+      <c r="D323" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="n">
@@ -7868,10 +7850,10 @@
       <c r="C324" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D324" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E324" s="13"/>
+      <c r="D324" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="n">
@@ -7883,25 +7865,25 @@
       <c r="C325" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D325" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E325" s="13"/>
+      <c r="D325" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="14" t="n">
+      <c r="A326" s="11" t="n">
         <v>297</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C326" s="11" t="s">
+      <c r="C326" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D326" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E326" s="13"/>
+      <c r="D326" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="n">
@@ -7913,10 +7895,10 @@
       <c r="C327" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="D327" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E327" s="13"/>
+      <c r="D327" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="n">
@@ -7928,10 +7910,10 @@
       <c r="C328" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D328" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E328" s="13"/>
+      <c r="D328" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="n">
@@ -7943,10 +7925,10 @@
       <c r="C329" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D329" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E329" s="13"/>
+      <c r="D329" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="n">
@@ -7955,13 +7937,13 @@
       <c r="B330" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C330" s="6" t="n">
+      <c r="C330" s="4" t="n">
         <v>266</v>
       </c>
-      <c r="D330" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" s="13"/>
+      <c r="D330" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="n">
@@ -7970,13 +7952,13 @@
       <c r="B331" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C331" s="6" t="n">
+      <c r="C331" s="4" t="n">
         <v>267</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="E331" s="13"/>
+      <c r="E331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="n">
@@ -7985,13 +7967,13 @@
       <c r="B332" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C332" s="6" t="n">
+      <c r="C332" s="4" t="n">
         <v>268</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="E332" s="13"/>
+      <c r="E332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="n">
@@ -8000,13 +7982,13 @@
       <c r="B333" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C333" s="6" t="n">
+      <c r="C333" s="4" t="n">
         <v>269</v>
       </c>
-      <c r="D333" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" s="13"/>
+      <c r="D333" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="n">
@@ -8015,13 +7997,13 @@
       <c r="B334" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C334" s="6" t="n">
+      <c r="C334" s="4" t="n">
         <v>270</v>
       </c>
-      <c r="D334" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E334" s="13"/>
+      <c r="D334" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="n">
@@ -8030,28 +8012,28 @@
       <c r="B335" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C335" s="6" t="n">
+      <c r="C335" s="4" t="n">
         <v>271</v>
       </c>
-      <c r="D335" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E335" s="13"/>
+      <c r="D335" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C336" s="6" t="n">
+      <c r="C336" s="4" t="n">
         <v>272</v>
       </c>
-      <c r="D336" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E336" s="13"/>
+      <c r="D336" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="n">
@@ -8060,13 +8042,13 @@
       <c r="B337" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C337" s="6" t="n">
+      <c r="C337" s="4" t="n">
         <v>273</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="E337" s="13"/>
+      <c r="E337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="n">
@@ -8075,13 +8057,13 @@
       <c r="B338" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C338" s="6" t="n">
+      <c r="C338" s="4" t="n">
         <v>274</v>
       </c>
-      <c r="D338" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E338" s="13"/>
+      <c r="D338" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="n">
@@ -8090,13 +8072,13 @@
       <c r="B339" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C339" s="6" t="n">
+      <c r="C339" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="D339" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E339" s="13"/>
+      <c r="D339" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="n">
@@ -8105,13 +8087,13 @@
       <c r="B340" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C340" s="6" t="n">
+      <c r="C340" s="4" t="n">
         <v>276</v>
       </c>
-      <c r="D340" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E340" s="13"/>
+      <c r="D340" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="n">
@@ -8120,13 +8102,13 @@
       <c r="B341" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C341" s="6" t="n">
+      <c r="C341" s="4" t="n">
         <v>277</v>
       </c>
-      <c r="D341" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E341" s="13"/>
+      <c r="D341" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="n">
@@ -8135,13 +8117,13 @@
       <c r="B342" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C342" s="6" t="n">
+      <c r="C342" s="4" t="n">
         <v>278</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E342" s="13"/>
+      <c r="E342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="n">
@@ -8150,13 +8132,13 @@
       <c r="B343" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C343" s="6" t="n">
+      <c r="C343" s="4" t="n">
         <v>279</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E343" s="13"/>
+      <c r="E343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="n">
@@ -8165,28 +8147,28 @@
       <c r="B344" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C344" s="6" t="n">
+      <c r="C344" s="4" t="n">
         <v>280</v>
       </c>
-      <c r="D344" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E344" s="13"/>
+      <c r="D344" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="14" t="n">
+      <c r="A345" s="11" t="n">
         <v>316</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C345" s="15" t="n">
+      <c r="C345" s="11" t="n">
         <v>281</v>
       </c>
-      <c r="D345" s="11" t="s">
+      <c r="D345" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="E345" s="13"/>
+      <c r="E345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="n">
@@ -8195,28 +8177,28 @@
       <c r="B346" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C346" s="6" t="n">
+      <c r="C346" s="4" t="n">
         <v>282</v>
       </c>
-      <c r="D346" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E346" s="13"/>
+      <c r="D346" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="n">
         <v>318</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C347" s="6" t="n">
+      <c r="C347" s="4" t="n">
         <v>283</v>
       </c>
-      <c r="D347" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E347" s="13"/>
+      <c r="D347" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="n">
@@ -8225,13 +8207,13 @@
       <c r="B348" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C348" s="6" t="n">
+      <c r="C348" s="4" t="n">
         <v>284</v>
       </c>
-      <c r="D348" s="8" t="s">
+      <c r="D348" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E348" s="13"/>
+      <c r="E348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="n">
@@ -8240,13 +8222,13 @@
       <c r="B349" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C349" s="6" t="n">
+      <c r="C349" s="4" t="n">
         <v>285</v>
       </c>
-      <c r="D349" s="18" t="s">
+      <c r="D349" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="E349" s="13"/>
+      <c r="E349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="n">
@@ -8255,13 +8237,13 @@
       <c r="B350" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C350" s="6" t="n">
+      <c r="C350" s="4" t="n">
         <v>286</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="E350" s="13"/>
+      <c r="E350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="n">
@@ -8270,13 +8252,13 @@
       <c r="B351" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C351" s="6" t="n">
+      <c r="C351" s="4" t="n">
         <v>287</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="E351" s="13"/>
+      <c r="E351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="n">
@@ -8285,13 +8267,13 @@
       <c r="B352" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C352" s="6" t="n">
+      <c r="C352" s="4" t="n">
         <v>288</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="E352" s="13"/>
+      <c r="E352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="n">
@@ -8300,13 +8282,13 @@
       <c r="B353" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C353" s="6" t="n">
+      <c r="C353" s="4" t="n">
         <v>289</v>
       </c>
-      <c r="D353" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E353" s="13"/>
+      <c r="D353" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="n">
@@ -8315,13 +8297,13 @@
       <c r="B354" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C354" s="6" t="n">
+      <c r="C354" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="D354" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E354" s="13"/>
+      <c r="D354" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="n">
@@ -8330,13 +8312,13 @@
       <c r="B355" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C355" s="6" t="n">
+      <c r="C355" s="4" t="n">
         <v>291</v>
       </c>
-      <c r="D355" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E355" s="13"/>
+      <c r="D355" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="n">
@@ -8351,7 +8333,7 @@
       <c r="D356" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="E356" s="13"/>
+      <c r="E356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="n">
@@ -8360,13 +8342,13 @@
       <c r="B357" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C357" s="6" t="n">
+      <c r="C357" s="4" t="n">
         <v>292</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="E357" s="13"/>
+      <c r="E357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="n">
@@ -8375,13 +8357,13 @@
       <c r="B358" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C358" s="6" t="n">
+      <c r="C358" s="4" t="n">
         <v>293</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="E358" s="13"/>
+      <c r="E358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="n">
@@ -8390,28 +8372,28 @@
       <c r="B359" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C359" s="6" t="n">
+      <c r="C359" s="4" t="n">
         <v>294</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="E359" s="13"/>
+      <c r="E359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="14" t="n">
+      <c r="A360" s="11" t="n">
         <v>331</v>
       </c>
-      <c r="B360" s="11" t="s">
+      <c r="B360" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C360" s="15" t="n">
+      <c r="C360" s="11" t="n">
         <v>295</v>
       </c>
-      <c r="D360" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E360" s="13"/>
+      <c r="D360" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="n">
@@ -8420,13 +8402,13 @@
       <c r="B361" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C361" s="6" t="n">
+      <c r="C361" s="4" t="n">
         <v>296</v>
       </c>
-      <c r="D361" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E361" s="13"/>
+      <c r="D361" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="n">
@@ -8435,13 +8417,13 @@
       <c r="B362" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="C362" s="6" t="n">
+      <c r="C362" s="4" t="n">
         <v>297</v>
       </c>
-      <c r="D362" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E362" s="13"/>
+      <c r="D362" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="n">
@@ -8450,13 +8432,13 @@
       <c r="B363" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C363" s="6" t="n">
+      <c r="C363" s="4" t="n">
         <v>298</v>
       </c>
-      <c r="D363" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E363" s="13"/>
+      <c r="D363" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="n">
@@ -8465,13 +8447,13 @@
       <c r="B364" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C364" s="6" t="n">
+      <c r="C364" s="4" t="n">
         <v>299</v>
       </c>
-      <c r="D364" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E364" s="13"/>
+      <c r="D364" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="n">
@@ -8480,13 +8462,13 @@
       <c r="B365" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C365" s="8" t="s">
+      <c r="C365" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="E365" s="13"/>
+      <c r="E365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="n">
@@ -8495,13 +8477,13 @@
       <c r="B366" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C366" s="6" t="n">
+      <c r="C366" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="D366" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E366" s="13"/>
+      <c r="D366" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="n">
@@ -8510,13 +8492,13 @@
       <c r="B367" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C367" s="6" t="n">
+      <c r="C367" s="4" t="n">
         <v>301</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E367" s="13"/>
+      <c r="E367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="n">
@@ -8525,13 +8507,13 @@
       <c r="B368" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C368" s="6" t="n">
+      <c r="C368" s="4" t="n">
         <v>302</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E368" s="13"/>
+      <c r="E368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="n">
@@ -8540,13 +8522,13 @@
       <c r="B369" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C369" s="6" t="n">
+      <c r="C369" s="4" t="n">
         <v>303</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E369" s="13"/>
+      <c r="E369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="n">
@@ -8555,13 +8537,13 @@
       <c r="B370" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C370" s="6" t="n">
+      <c r="C370" s="4" t="n">
         <v>304</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E370" s="13"/>
+      <c r="E370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="n">
@@ -8570,13 +8552,13 @@
       <c r="B371" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C371" s="6" t="n">
+      <c r="C371" s="4" t="n">
         <v>305</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="E371" s="13"/>
+      <c r="E371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="n">
@@ -8585,13 +8567,13 @@
       <c r="B372" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C372" s="6" t="n">
+      <c r="C372" s="4" t="n">
         <v>306</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="E372" s="13"/>
+      <c r="E372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="n">
@@ -8600,13 +8582,13 @@
       <c r="B373" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C373" s="6" t="n">
+      <c r="C373" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="D373" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E373" s="13"/>
+      <c r="D373" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="n">
@@ -8615,13 +8597,13 @@
       <c r="B374" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C374" s="6" t="n">
+      <c r="C374" s="4" t="n">
         <v>308</v>
       </c>
-      <c r="D374" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E374" s="13"/>
+      <c r="D374" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="116.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="n">
@@ -8630,13 +8612,13 @@
       <c r="B375" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C375" s="6" t="n">
+      <c r="C375" s="4" t="n">
         <v>309</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E375" s="13"/>
+      <c r="E375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="n">
@@ -8645,13 +8627,13 @@
       <c r="B376" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C376" s="6" t="n">
+      <c r="C376" s="4" t="n">
         <v>310</v>
       </c>
-      <c r="D376" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E376" s="13"/>
+      <c r="D376" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="n">
@@ -8660,13 +8642,13 @@
       <c r="B377" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C377" s="6" t="n">
+      <c r="C377" s="4" t="n">
         <v>311</v>
       </c>
-      <c r="D377" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E377" s="13"/>
+      <c r="D377" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="n">
@@ -8678,10 +8660,10 @@
       <c r="C378" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D378" s="16" t="s">
+      <c r="D378" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="E378" s="13"/>
+      <c r="E378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="n">
@@ -8690,13 +8672,13 @@
       <c r="B379" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="C379" s="6" t="n">
+      <c r="C379" s="4" t="n">
         <v>312</v>
       </c>
-      <c r="D379" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E379" s="13"/>
+      <c r="D379" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="n">
@@ -8705,13 +8687,13 @@
       <c r="B380" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C380" s="6" t="n">
+      <c r="C380" s="4" t="n">
         <v>313</v>
       </c>
-      <c r="D380" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E380" s="13"/>
+      <c r="D380" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="n">
@@ -8720,13 +8702,13 @@
       <c r="B381" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="C381" s="6" t="n">
+      <c r="C381" s="4" t="n">
         <v>314</v>
       </c>
-      <c r="D381" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E381" s="13"/>
+      <c r="D381" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="n">
@@ -8735,13 +8717,13 @@
       <c r="B382" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C382" s="6" t="n">
+      <c r="C382" s="4" t="n">
         <v>315</v>
       </c>
-      <c r="D382" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E382" s="13"/>
+      <c r="D382" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="n">
@@ -8750,13 +8732,13 @@
       <c r="B383" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C383" s="6" t="n">
+      <c r="C383" s="4" t="n">
         <v>316</v>
       </c>
-      <c r="D383" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E383" s="13"/>
+      <c r="D383" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="n">
@@ -8765,13 +8747,13 @@
       <c r="B384" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C384" s="6" t="n">
+      <c r="C384" s="4" t="n">
         <v>317</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E384" s="13"/>
+      <c r="E384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="n">
@@ -8780,13 +8762,13 @@
       <c r="B385" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C385" s="8" t="s">
+      <c r="C385" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="E385" s="13"/>
+      <c r="E385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="n">
@@ -8795,13 +8777,13 @@
       <c r="B386" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C386" s="6" t="n">
+      <c r="C386" s="4" t="n">
         <v>318</v>
       </c>
-      <c r="D386" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E386" s="13"/>
+      <c r="D386" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="n">
@@ -8810,13 +8792,13 @@
       <c r="B387" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C387" s="6" t="n">
+      <c r="C387" s="4" t="n">
         <v>319</v>
       </c>
-      <c r="D387" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E387" s="13"/>
+      <c r="D387" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="n">
@@ -8825,28 +8807,28 @@
       <c r="B388" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C388" s="6" t="n">
+      <c r="C388" s="4" t="n">
         <v>320</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="E388" s="13"/>
+      <c r="E388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14" t="n">
+      <c r="A389" s="11" t="n">
         <v>360</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C389" s="15" t="n">
+      <c r="C389" s="11" t="n">
         <v>321</v>
       </c>
-      <c r="D389" s="11" t="s">
+      <c r="D389" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="E389" s="13"/>
+      <c r="E389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="n">
@@ -8855,13 +8837,13 @@
       <c r="B390" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C390" s="6" t="n">
+      <c r="C390" s="4" t="n">
         <v>322</v>
       </c>
-      <c r="D390" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E390" s="13"/>
+      <c r="D390" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="n">
@@ -8870,13 +8852,13 @@
       <c r="B391" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C391" s="6" t="n">
+      <c r="C391" s="4" t="n">
         <v>323</v>
       </c>
-      <c r="D391" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E391" s="13"/>
+      <c r="D391" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="n">
@@ -8885,13 +8867,13 @@
       <c r="B392" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C392" s="6" t="n">
+      <c r="C392" s="4" t="n">
         <v>324</v>
       </c>
-      <c r="D392" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E392" s="13"/>
+      <c r="D392" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="n">
@@ -8900,13 +8882,13 @@
       <c r="B393" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="C393" s="6" t="n">
+      <c r="C393" s="4" t="n">
         <v>325</v>
       </c>
-      <c r="D393" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E393" s="13"/>
+      <c r="D393" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="n">
@@ -8915,13 +8897,13 @@
       <c r="B394" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C394" s="6" t="n">
+      <c r="C394" s="4" t="n">
         <v>326</v>
       </c>
-      <c r="D394" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E394" s="13"/>
+      <c r="D394" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="n">
@@ -8930,13 +8912,13 @@
       <c r="B395" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="C395" s="6" t="n">
+      <c r="C395" s="4" t="n">
         <v>327</v>
       </c>
-      <c r="D395" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E395" s="13"/>
+      <c r="D395" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="n">
@@ -8945,13 +8927,13 @@
       <c r="B396" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C396" s="6" t="n">
+      <c r="C396" s="4" t="n">
         <v>328</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="E396" s="13"/>
+      <c r="E396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="n">
@@ -8960,13 +8942,13 @@
       <c r="B397" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C397" s="6" t="n">
+      <c r="C397" s="4" t="n">
         <v>329</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="E397" s="13"/>
+      <c r="E397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="n">
@@ -8975,13 +8957,13 @@
       <c r="B398" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C398" s="6" t="n">
+      <c r="C398" s="4" t="n">
         <v>330</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E398" s="13"/>
+      <c r="E398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="n">
@@ -8990,13 +8972,13 @@
       <c r="B399" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C399" s="6" t="n">
+      <c r="C399" s="4" t="n">
         <v>331</v>
       </c>
-      <c r="D399" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E399" s="13"/>
+      <c r="D399" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="n">
@@ -9005,13 +8987,13 @@
       <c r="B400" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="C400" s="6" t="n">
+      <c r="C400" s="4" t="n">
         <v>332</v>
       </c>
-      <c r="D400" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E400" s="13"/>
+      <c r="D400" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="n">
@@ -9020,28 +9002,28 @@
       <c r="B401" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C401" s="6" t="n">
+      <c r="C401" s="4" t="n">
         <v>333</v>
       </c>
-      <c r="D401" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E401" s="13"/>
+      <c r="D401" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="14" t="n">
+      <c r="A402" s="11" t="n">
         <v>373</v>
       </c>
-      <c r="B402" s="11" t="s">
+      <c r="B402" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C402" s="15" t="n">
+      <c r="C402" s="11" t="n">
         <v>334</v>
       </c>
-      <c r="D402" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E402" s="13"/>
+      <c r="D402" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="n">
@@ -9050,13 +9032,13 @@
       <c r="B403" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C403" s="6" t="n">
+      <c r="C403" s="4" t="n">
         <v>335</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="E403" s="13"/>
+      <c r="E403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="n">
@@ -9065,13 +9047,13 @@
       <c r="B404" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="C404" s="6" t="n">
+      <c r="C404" s="4" t="n">
         <v>336</v>
       </c>
-      <c r="D404" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E404" s="13"/>
+      <c r="D404" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="n">
@@ -9080,13 +9062,13 @@
       <c r="B405" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C405" s="6" t="n">
+      <c r="C405" s="4" t="n">
         <v>337</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="E405" s="13"/>
+      <c r="E405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="n">
@@ -9095,13 +9077,13 @@
       <c r="B406" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="C406" s="6" t="n">
+      <c r="C406" s="4" t="n">
         <v>338</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E406" s="13"/>
+      <c r="E406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="n">
@@ -9110,13 +9092,13 @@
       <c r="B407" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C407" s="6" t="n">
+      <c r="C407" s="4" t="n">
         <v>339</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E407" s="13"/>
+      <c r="E407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="n">
@@ -9125,13 +9107,13 @@
       <c r="B408" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="C408" s="6" t="n">
+      <c r="C408" s="4" t="n">
         <v>340</v>
       </c>
-      <c r="D408" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E408" s="13"/>
+      <c r="D408" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="n">
@@ -9140,13 +9122,13 @@
       <c r="B409" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C409" s="6" t="n">
+      <c r="C409" s="4" t="n">
         <v>341</v>
       </c>
-      <c r="D409" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E409" s="13"/>
+      <c r="D409" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="n">
@@ -9155,13 +9137,13 @@
       <c r="B410" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C410" s="6" t="n">
+      <c r="C410" s="4" t="n">
         <v>342</v>
       </c>
-      <c r="D410" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E410" s="13"/>
+      <c r="D410" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="n">
@@ -9170,13 +9152,13 @@
       <c r="B411" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C411" s="6" t="n">
+      <c r="C411" s="4" t="n">
         <v>343</v>
       </c>
-      <c r="D411" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E411" s="13"/>
+      <c r="D411" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="n">
@@ -9185,13 +9167,13 @@
       <c r="B412" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C412" s="6" t="n">
+      <c r="C412" s="4" t="n">
         <v>344</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="E412" s="13"/>
+      <c r="E412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="n">
@@ -9200,13 +9182,13 @@
       <c r="B413" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C413" s="6" t="n">
+      <c r="C413" s="4" t="n">
         <v>345</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E413" s="13"/>
+      <c r="E413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="n">
@@ -9215,13 +9197,13 @@
       <c r="B414" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C414" s="6" t="n">
+      <c r="C414" s="4" t="n">
         <v>346</v>
       </c>
-      <c r="D414" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E414" s="13"/>
+      <c r="D414" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="n">
@@ -9230,13 +9212,13 @@
       <c r="B415" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C415" s="6" t="n">
+      <c r="C415" s="4" t="n">
         <v>347</v>
       </c>
-      <c r="D415" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E415" s="13"/>
+      <c r="D415" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="n">
@@ -9245,13 +9227,13 @@
       <c r="B416" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C416" s="6" t="n">
+      <c r="C416" s="4" t="n">
         <v>348</v>
       </c>
-      <c r="D416" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E416" s="13"/>
+      <c r="D416" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="n">
@@ -9260,28 +9242,28 @@
       <c r="B417" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="C417" s="6" t="n">
+      <c r="C417" s="4" t="n">
         <v>349</v>
       </c>
-      <c r="D417" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E417" s="13"/>
+      <c r="D417" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="14" t="n">
+      <c r="A418" s="11" t="n">
         <v>389</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C418" s="15" t="n">
+      <c r="C418" s="11" t="n">
         <v>350</v>
       </c>
-      <c r="D418" s="11" t="s">
+      <c r="D418" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="E418" s="13"/>
+      <c r="E418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="n">
@@ -9290,13 +9272,13 @@
       <c r="B419" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C419" s="6" t="n">
+      <c r="C419" s="4" t="n">
         <v>351</v>
       </c>
-      <c r="D419" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E419" s="13"/>
+      <c r="D419" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="n">
@@ -9305,13 +9287,13 @@
       <c r="B420" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C420" s="6" t="n">
+      <c r="C420" s="4" t="n">
         <v>352</v>
       </c>
-      <c r="D420" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E420" s="13"/>
+      <c r="D420" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="n">
@@ -9320,13 +9302,13 @@
       <c r="B421" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="C421" s="6" t="n">
+      <c r="C421" s="4" t="n">
         <v>353</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="E421" s="13"/>
+      <c r="E421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="n">
@@ -9335,13 +9317,13 @@
       <c r="B422" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C422" s="6" t="n">
+      <c r="C422" s="4" t="n">
         <v>354</v>
       </c>
-      <c r="D422" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E422" s="13"/>
+      <c r="D422" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="n">
@@ -9350,13 +9332,13 @@
       <c r="B423" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="C423" s="6" t="n">
+      <c r="C423" s="4" t="n">
         <v>356</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E423" s="13"/>
+      <c r="E423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="n">
@@ -9365,13 +9347,13 @@
       <c r="B424" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C424" s="6" t="n">
+      <c r="C424" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="D424" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E424" s="13"/>
+      <c r="D424" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="n">
@@ -9383,10 +9365,10 @@
       <c r="C425" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D425" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E425" s="13"/>
+      <c r="D425" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="n">
@@ -9401,7 +9383,7 @@
       <c r="D426" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E426" s="13"/>
+      <c r="E426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="n">
@@ -9410,13 +9392,13 @@
       <c r="B427" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C427" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E427" s="13"/>
+      <c r="E427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="n">
@@ -9425,13 +9407,13 @@
       <c r="B428" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="C428" s="6" t="n">
+      <c r="C428" s="4" t="n">
         <v>358</v>
       </c>
-      <c r="D428" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E428" s="13"/>
+      <c r="D428" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="n">
@@ -9440,28 +9422,28 @@
       <c r="B429" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C429" s="6" t="n">
+      <c r="C429" s="4" t="n">
         <v>359</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E429" s="13"/>
+      <c r="E429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="14" t="n">
+      <c r="A430" s="11" t="n">
         <v>401</v>
       </c>
-      <c r="B430" s="11" t="s">
+      <c r="B430" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C430" s="15" t="n">
+      <c r="C430" s="11" t="n">
         <v>360</v>
       </c>
-      <c r="D430" s="11" t="s">
+      <c r="D430" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="E430" s="13"/>
+      <c r="E430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="n">
@@ -9470,13 +9452,13 @@
       <c r="B431" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C431" s="6" t="n">
+      <c r="C431" s="4" t="n">
         <v>361</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="E431" s="13"/>
+      <c r="E431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="n">
@@ -9485,13 +9467,13 @@
       <c r="B432" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C432" s="6" t="n">
+      <c r="C432" s="4" t="n">
         <v>362</v>
       </c>
-      <c r="D432" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E432" s="13"/>
+      <c r="D432" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="n">
@@ -9500,13 +9482,13 @@
       <c r="B433" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C433" s="6" t="n">
+      <c r="C433" s="4" t="n">
         <v>363</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="E433" s="13"/>
+      <c r="E433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="n">
@@ -9515,13 +9497,13 @@
       <c r="B434" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="C434" s="6" t="n">
+      <c r="C434" s="4" t="n">
         <v>364</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="E434" s="13"/>
+      <c r="E434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="n">
@@ -9530,13 +9512,13 @@
       <c r="B435" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C435" s="6" t="n">
+      <c r="C435" s="4" t="n">
         <v>365</v>
       </c>
-      <c r="D435" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E435" s="13"/>
+      <c r="D435" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="n">
@@ -9545,13 +9527,13 @@
       <c r="B436" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="C436" s="6" t="n">
+      <c r="C436" s="4" t="n">
         <v>366</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E436" s="13"/>
+      <c r="E436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="n">
@@ -9560,13 +9542,13 @@
       <c r="B437" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="C437" s="6" t="n">
+      <c r="C437" s="4" t="n">
         <v>367</v>
       </c>
-      <c r="D437" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E437" s="13"/>
+      <c r="D437" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="n">
@@ -9575,13 +9557,13 @@
       <c r="B438" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="C438" s="6" t="n">
+      <c r="C438" s="4" t="n">
         <v>368</v>
       </c>
-      <c r="D438" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E438" s="13"/>
+      <c r="D438" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="n">
@@ -9590,13 +9572,13 @@
       <c r="B439" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C439" s="6" t="n">
+      <c r="C439" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="D439" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E439" s="13"/>
+      <c r="D439" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="n">
@@ -9605,13 +9587,13 @@
       <c r="B440" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C440" s="6" t="n">
+      <c r="C440" s="4" t="n">
         <v>370</v>
       </c>
-      <c r="D440" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E440" s="13"/>
+      <c r="D440" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="n">
@@ -9620,13 +9602,13 @@
       <c r="B441" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="C441" s="6" t="n">
+      <c r="C441" s="4" t="n">
         <v>371</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="E441" s="13"/>
+      <c r="E441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="n">
@@ -9635,13 +9617,13 @@
       <c r="B442" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C442" s="6" t="n">
+      <c r="C442" s="4" t="n">
         <v>372</v>
       </c>
-      <c r="D442" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E442" s="13"/>
+      <c r="D442" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="n">
@@ -9650,28 +9632,28 @@
       <c r="B443" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="C443" s="6" t="n">
+      <c r="C443" s="4" t="n">
         <v>373</v>
       </c>
-      <c r="D443" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E443" s="13"/>
+      <c r="D443" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="14" t="n">
+      <c r="A444" s="11" t="n">
         <v>415</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B444" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C444" s="15" t="n">
+      <c r="C444" s="11" t="n">
         <v>374</v>
       </c>
-      <c r="D444" s="11" t="s">
+      <c r="D444" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="E444" s="13"/>
+      <c r="E444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="n">
@@ -9680,13 +9662,13 @@
       <c r="B445" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C445" s="6" t="n">
+      <c r="C445" s="4" t="n">
         <v>375</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E445" s="13"/>
+      <c r="E445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="n">
@@ -9695,13 +9677,13 @@
       <c r="B446" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="C446" s="6" t="n">
+      <c r="C446" s="4" t="n">
         <v>376</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="E446" s="13"/>
+      <c r="E446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="n">
@@ -9710,13 +9692,13 @@
       <c r="B447" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="C447" s="6" t="n">
+      <c r="C447" s="4" t="n">
         <v>377</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="E447" s="13"/>
+      <c r="E447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="n">
@@ -9725,13 +9707,13 @@
       <c r="B448" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="C448" s="6" t="n">
+      <c r="C448" s="4" t="n">
         <v>378</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E448" s="13"/>
+      <c r="E448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="n">
@@ -9740,13 +9722,13 @@
       <c r="B449" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="C449" s="6" t="n">
+      <c r="C449" s="4" t="n">
         <v>379</v>
       </c>
-      <c r="D449" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E449" s="13"/>
+      <c r="D449" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="n">
@@ -9755,13 +9737,13 @@
       <c r="B450" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C450" s="6" t="n">
+      <c r="C450" s="4" t="n">
         <v>380</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="E450" s="13"/>
+      <c r="E450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="n">
@@ -9770,13 +9752,13 @@
       <c r="B451" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C451" s="6" t="n">
+      <c r="C451" s="4" t="n">
         <v>381</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E451" s="13"/>
+      <c r="E451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="n">
@@ -9785,13 +9767,13 @@
       <c r="B452" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C452" s="6" t="n">
+      <c r="C452" s="4" t="n">
         <v>382</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E452" s="13"/>
+      <c r="E452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="n">
@@ -9800,13 +9782,13 @@
       <c r="B453" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="C453" s="6" t="n">
+      <c r="C453" s="4" t="n">
         <v>383</v>
       </c>
-      <c r="D453" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E453" s="13"/>
+      <c r="D453" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="n">
@@ -9815,13 +9797,13 @@
       <c r="B454" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="C454" s="6" t="n">
+      <c r="C454" s="4" t="n">
         <v>384</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E454" s="13"/>
+      <c r="E454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="n">
@@ -9830,13 +9812,13 @@
       <c r="B455" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="C455" s="6" t="n">
+      <c r="C455" s="4" t="n">
         <v>385</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E455" s="13"/>
+      <c r="E455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="n">
@@ -9845,13 +9827,13 @@
       <c r="B456" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C456" s="6" t="n">
+      <c r="C456" s="4" t="n">
         <v>386</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E456" s="13"/>
+      <c r="E456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="n">
@@ -9860,13 +9842,13 @@
       <c r="B457" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="C457" s="6" t="n">
+      <c r="C457" s="4" t="n">
         <v>387</v>
       </c>
-      <c r="D457" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E457" s="13"/>
+      <c r="D457" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="n">
@@ -9875,13 +9857,13 @@
       <c r="B458" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="C458" s="6" t="n">
+      <c r="C458" s="4" t="n">
         <v>388</v>
       </c>
-      <c r="D458" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E458" s="13"/>
+      <c r="D458" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="n">
@@ -9890,13 +9872,13 @@
       <c r="B459" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="C459" s="6" t="n">
+      <c r="C459" s="4" t="n">
         <v>389</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="E459" s="13"/>
+      <c r="E459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="n">
@@ -9905,13 +9887,13 @@
       <c r="B460" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="C460" s="6" t="n">
+      <c r="C460" s="4" t="n">
         <v>390</v>
       </c>
-      <c r="D460" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E460" s="13"/>
+      <c r="D460" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="n">
@@ -9920,13 +9902,13 @@
       <c r="B461" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="C461" s="6" t="n">
+      <c r="C461" s="4" t="n">
         <v>391</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E461" s="13"/>
+      <c r="E461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="n">
@@ -9935,28 +9917,28 @@
       <c r="B462" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="C462" s="6" t="n">
+      <c r="C462" s="4" t="n">
         <v>392</v>
       </c>
-      <c r="D462" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E462" s="13"/>
+      <c r="D462" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="14" t="n">
+      <c r="A463" s="11" t="n">
         <v>434</v>
       </c>
-      <c r="B463" s="11" t="s">
+      <c r="B463" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C463" s="15" t="n">
+      <c r="C463" s="11" t="n">
         <v>393</v>
       </c>
-      <c r="D463" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E463" s="13"/>
+      <c r="D463" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="n">
@@ -9965,13 +9947,13 @@
       <c r="B464" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C464" s="6" t="n">
+      <c r="C464" s="4" t="n">
         <v>394</v>
       </c>
-      <c r="D464" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E464" s="13"/>
+      <c r="D464" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="n">
@@ -9980,13 +9962,13 @@
       <c r="B465" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C465" s="6" t="n">
+      <c r="C465" s="4" t="n">
         <v>395</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="E465" s="13"/>
+      <c r="E465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="n">
@@ -9995,13 +9977,13 @@
       <c r="B466" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C466" s="6" t="n">
+      <c r="C466" s="4" t="n">
         <v>396</v>
       </c>
-      <c r="D466" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E466" s="13"/>
+      <c r="D466" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="n">
@@ -10010,13 +9992,13 @@
       <c r="B467" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="C467" s="6" t="n">
+      <c r="C467" s="4" t="n">
         <v>397</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E467" s="13"/>
+      <c r="E467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="n">
@@ -10025,13 +10007,13 @@
       <c r="B468" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="C468" s="6" t="n">
+      <c r="C468" s="4" t="n">
         <v>398</v>
       </c>
-      <c r="D468" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E468" s="13"/>
+      <c r="D468" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="n">
@@ -10040,13 +10022,13 @@
       <c r="B469" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C469" s="6" t="n">
+      <c r="C469" s="4" t="n">
         <v>399</v>
       </c>
-      <c r="D469" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E469" s="13"/>
+      <c r="D469" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="n">
@@ -10055,13 +10037,13 @@
       <c r="B470" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C470" s="6" t="n">
+      <c r="C470" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D470" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E470" s="13"/>
+      <c r="D470" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="n">
@@ -10070,13 +10052,13 @@
       <c r="B471" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C471" s="6" t="n">
+      <c r="C471" s="4" t="n">
         <v>401</v>
       </c>
       <c r="D471" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E471" s="13"/>
+      <c r="E471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="n">
@@ -10085,13 +10067,13 @@
       <c r="B472" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="C472" s="6" t="n">
+      <c r="C472" s="4" t="n">
         <v>402</v>
       </c>
-      <c r="D472" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E472" s="13"/>
+      <c r="D472" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="n">
@@ -10100,13 +10082,13 @@
       <c r="B473" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C473" s="6" t="n">
+      <c r="C473" s="4" t="n">
         <v>403</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="E473" s="13"/>
+      <c r="E473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="n">
@@ -10115,13 +10097,13 @@
       <c r="B474" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="C474" s="6" t="n">
+      <c r="C474" s="4" t="n">
         <v>405</v>
       </c>
-      <c r="D474" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E474" s="13"/>
+      <c r="D474" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="n">
@@ -10130,13 +10112,13 @@
       <c r="B475" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="C475" s="6" t="n">
+      <c r="C475" s="4" t="n">
         <v>406</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E475" s="13"/>
+      <c r="E475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="n">
@@ -10145,13 +10127,13 @@
       <c r="B476" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="C476" s="6" t="n">
+      <c r="C476" s="4" t="n">
         <v>407</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E476" s="13"/>
+      <c r="E476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="n">
@@ -10160,13 +10142,13 @@
       <c r="B477" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="C477" s="6" t="n">
+      <c r="C477" s="4" t="n">
         <v>408</v>
       </c>
-      <c r="D477" s="16" t="s">
+      <c r="D477" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="E477" s="13"/>
+      <c r="E477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="n">
@@ -10175,13 +10157,13 @@
       <c r="B478" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="C478" s="6" t="n">
+      <c r="C478" s="4" t="n">
         <v>409</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E478" s="13"/>
+      <c r="E478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="n">
@@ -10190,13 +10172,13 @@
       <c r="B479" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="C479" s="6" t="n">
+      <c r="C479" s="4" t="n">
         <v>410</v>
       </c>
-      <c r="D479" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E479" s="13"/>
+      <c r="D479" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="n">
@@ -10205,13 +10187,13 @@
       <c r="B480" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C480" s="6" t="n">
+      <c r="C480" s="4" t="n">
         <v>411</v>
       </c>
-      <c r="D480" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E480" s="13"/>
+      <c r="D480" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="n">
@@ -10220,13 +10202,13 @@
       <c r="B481" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="C481" s="6" t="n">
+      <c r="C481" s="4" t="n">
         <v>412</v>
       </c>
-      <c r="D481" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E481" s="13"/>
+      <c r="D481" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="n">
@@ -10235,13 +10217,13 @@
       <c r="B482" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C482" s="6" t="n">
+      <c r="C482" s="4" t="n">
         <v>413</v>
       </c>
-      <c r="D482" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E482" s="13"/>
+      <c r="D482" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="n">
@@ -10250,28 +10232,28 @@
       <c r="B483" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C483" s="6" t="n">
+      <c r="C483" s="4" t="n">
         <v>414</v>
       </c>
-      <c r="D483" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E483" s="13"/>
+      <c r="D483" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="14" t="n">
+      <c r="A484" s="11" t="n">
         <v>455</v>
       </c>
-      <c r="B484" s="11" t="s">
+      <c r="B484" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C484" s="15" t="n">
+      <c r="C484" s="11" t="n">
         <v>415</v>
       </c>
-      <c r="D484" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E484" s="13"/>
+      <c r="D484" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="n">
@@ -10280,13 +10262,13 @@
       <c r="B485" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="C485" s="6" t="n">
+      <c r="C485" s="4" t="n">
         <v>416</v>
       </c>
       <c r="D485" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="E485" s="13"/>
+      <c r="E485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="n">
@@ -10295,13 +10277,13 @@
       <c r="B486" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C486" s="6" t="n">
+      <c r="C486" s="4" t="n">
         <v>417</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E486" s="13"/>
+      <c r="E486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="n">
@@ -10310,13 +10292,13 @@
       <c r="B487" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="C487" s="6" t="n">
+      <c r="C487" s="4" t="n">
         <v>418</v>
       </c>
-      <c r="D487" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E487" s="13"/>
+      <c r="D487" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="n">
@@ -10325,13 +10307,13 @@
       <c r="B488" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C488" s="6" t="n">
+      <c r="C488" s="4" t="n">
         <v>419</v>
       </c>
-      <c r="D488" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E488" s="13"/>
+      <c r="D488" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="n">
@@ -10340,13 +10322,13 @@
       <c r="B489" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="C489" s="6" t="n">
+      <c r="C489" s="4" t="n">
         <v>420</v>
       </c>
-      <c r="D489" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E489" s="13"/>
+      <c r="D489" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="n">
@@ -10355,13 +10337,13 @@
       <c r="B490" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C490" s="6" t="n">
+      <c r="C490" s="4" t="n">
         <v>421</v>
       </c>
       <c r="D490" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E490" s="13"/>
+      <c r="E490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="n">
@@ -10370,13 +10352,13 @@
       <c r="B491" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C491" s="6" t="n">
+      <c r="C491" s="4" t="n">
         <v>422</v>
       </c>
-      <c r="D491" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E491" s="13"/>
+      <c r="D491" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="n">
@@ -10385,13 +10367,13 @@
       <c r="B492" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="C492" s="6" t="n">
+      <c r="C492" s="4" t="n">
         <v>423</v>
       </c>
-      <c r="D492" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E492" s="13"/>
+      <c r="D492" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="n">
@@ -10400,13 +10382,13 @@
       <c r="B493" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="C493" s="6" t="n">
+      <c r="C493" s="4" t="n">
         <v>424</v>
       </c>
       <c r="D493" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E493" s="13"/>
+      <c r="E493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="n">
@@ -10415,13 +10397,13 @@
       <c r="B494" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C494" s="6" t="n">
+      <c r="C494" s="4" t="n">
         <v>425</v>
       </c>
-      <c r="D494" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E494" s="13"/>
+      <c r="D494" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="n">
@@ -10430,13 +10412,13 @@
       <c r="B495" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="C495" s="6" t="n">
+      <c r="C495" s="4" t="n">
         <v>426</v>
       </c>
-      <c r="D495" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E495" s="13"/>
+      <c r="D495" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="n">
@@ -10445,13 +10427,13 @@
       <c r="B496" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="C496" s="6" t="n">
+      <c r="C496" s="4" t="n">
         <v>427</v>
       </c>
-      <c r="D496" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E496" s="13"/>
+      <c r="D496" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="n">
@@ -10460,13 +10442,13 @@
       <c r="B497" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C497" s="6" t="n">
+      <c r="C497" s="4" t="n">
         <v>428</v>
       </c>
-      <c r="D497" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E497" s="13"/>
+      <c r="D497" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="n">
@@ -10475,13 +10457,13 @@
       <c r="B498" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C498" s="6" t="n">
+      <c r="C498" s="4" t="n">
         <v>429</v>
       </c>
-      <c r="D498" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E498" s="13"/>
+      <c r="D498" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="n">
@@ -10490,13 +10472,13 @@
       <c r="B499" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C499" s="6" t="n">
+      <c r="C499" s="4" t="n">
         <v>430</v>
       </c>
-      <c r="D499" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E499" s="13"/>
+      <c r="D499" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="n">
@@ -10505,13 +10487,13 @@
       <c r="B500" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="C500" s="6" t="n">
+      <c r="C500" s="4" t="n">
         <v>431</v>
       </c>
-      <c r="D500" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E500" s="13"/>
+      <c r="D500" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="n">
@@ -10520,43 +10502,43 @@
       <c r="B501" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C501" s="8" t="s">
+      <c r="C501" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D501" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="E501" s="13"/>
+      <c r="E501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="14" t="n">
+      <c r="A502" s="11" t="n">
         <v>473</v>
       </c>
-      <c r="B502" s="11" t="s">
+      <c r="B502" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C502" s="15" t="n">
+      <c r="C502" s="11" t="n">
         <v>432</v>
       </c>
-      <c r="D502" s="11" t="s">
+      <c r="D502" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="E502" s="13"/>
+      <c r="E502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="n">
         <v>474</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C503" s="6" t="n">
+      <c r="C503" s="4" t="n">
         <v>433</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="E503" s="13"/>
+      <c r="E503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="n">
@@ -10568,10 +10550,10 @@
       <c r="C504" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="D504" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E504" s="13"/>
+      <c r="D504" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="n">
@@ -10580,13 +10562,13 @@
       <c r="B505" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="C505" s="6" t="n">
+      <c r="C505" s="4" t="n">
         <v>434</v>
       </c>
-      <c r="D505" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E505" s="13"/>
+      <c r="D505" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="n">
@@ -10595,13 +10577,13 @@
       <c r="B506" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="C506" s="6" t="n">
+      <c r="C506" s="4" t="n">
         <v>435</v>
       </c>
       <c r="D506" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="E506" s="13"/>
+      <c r="E506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="n">
@@ -10610,13 +10592,13 @@
       <c r="B507" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C507" s="6" t="n">
+      <c r="C507" s="4" t="n">
         <v>436</v>
       </c>
       <c r="D507" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E507" s="13"/>
+      <c r="E507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="n">
@@ -10631,7 +10613,7 @@
       <c r="D508" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="E508" s="13"/>
+      <c r="E508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="n">
@@ -10640,13 +10622,13 @@
       <c r="B509" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="C509" s="6" t="n">
+      <c r="C509" s="4" t="n">
         <v>437</v>
       </c>
       <c r="D509" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="E509" s="13"/>
+      <c r="E509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="n">
@@ -10661,7 +10643,7 @@
       <c r="D510" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="E510" s="13"/>
+      <c r="E510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="n">
@@ -10670,13 +10652,13 @@
       <c r="B511" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="C511" s="6" t="n">
+      <c r="C511" s="4" t="n">
         <v>438</v>
       </c>
-      <c r="D511" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E511" s="13"/>
+      <c r="D511" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="n">
@@ -10685,13 +10667,13 @@
       <c r="B512" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="C512" s="6" t="n">
+      <c r="C512" s="4" t="n">
         <v>439</v>
       </c>
-      <c r="D512" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E512" s="13"/>
+      <c r="D512" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="n">
@@ -10700,13 +10682,13 @@
       <c r="B513" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="C513" s="6" t="n">
+      <c r="C513" s="4" t="n">
         <v>440</v>
       </c>
-      <c r="D513" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E513" s="13"/>
+      <c r="D513" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="n">
@@ -10715,22 +10697,22 @@
       <c r="B514" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C514" s="6" t="n">
+      <c r="C514" s="4" t="n">
         <v>441</v>
       </c>
       <c r="D514" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="E514" s="13"/>
+      <c r="E514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="17"/>
-      <c r="B515" s="17"/>
-      <c r="C515" s="17"/>
-      <c r="D515" s="11" t="s">
+      <c r="A515" s="13"/>
+      <c r="B515" s="13"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="E515" s="13"/>
+      <c r="E515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="n">
@@ -10742,10 +10724,10 @@
       <c r="C516" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="D516" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E516" s="13"/>
+      <c r="D516" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="n">
@@ -10754,13 +10736,13 @@
       <c r="B517" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="C517" s="6" t="n">
+      <c r="C517" s="4" t="n">
         <v>442</v>
       </c>
       <c r="D517" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="E517" s="13"/>
+      <c r="E517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="n">
@@ -10769,13 +10751,13 @@
       <c r="B518" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C518" s="6" t="n">
+      <c r="C518" s="4" t="n">
         <v>443</v>
       </c>
-      <c r="D518" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E518" s="13"/>
+      <c r="D518" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="n">
@@ -10784,13 +10766,13 @@
       <c r="B519" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="C519" s="6" t="n">
+      <c r="C519" s="4" t="n">
         <v>444</v>
       </c>
-      <c r="D519" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E519" s="13"/>
+      <c r="D519" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="n">
@@ -10799,13 +10781,13 @@
       <c r="B520" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="C520" s="6" t="n">
+      <c r="C520" s="4" t="n">
         <v>445</v>
       </c>
       <c r="D520" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="E520" s="13"/>
+      <c r="E520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="n">
@@ -10814,13 +10796,13 @@
       <c r="B521" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="C521" s="6" t="n">
+      <c r="C521" s="4" t="n">
         <v>446</v>
       </c>
-      <c r="D521" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E521" s="13"/>
+      <c r="D521" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="n">
@@ -10835,7 +10817,7 @@
       <c r="D522" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="E522" s="13"/>
+      <c r="E522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="n">
@@ -10844,13 +10826,13 @@
       <c r="B523" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="C523" s="6" t="n">
+      <c r="C523" s="4" t="n">
         <v>447</v>
       </c>
-      <c r="D523" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E523" s="13"/>
+      <c r="D523" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="n">
@@ -10859,13 +10841,13 @@
       <c r="B524" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C524" s="6" t="n">
+      <c r="C524" s="4" t="n">
         <v>448</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="E524" s="13"/>
+      <c r="E524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="n">
@@ -10874,13 +10856,13 @@
       <c r="B525" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="C525" s="6" t="n">
+      <c r="C525" s="4" t="n">
         <v>449</v>
       </c>
-      <c r="D525" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E525" s="13"/>
+      <c r="D525" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="n">
@@ -10889,13 +10871,13 @@
       <c r="B526" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="C526" s="6" t="n">
+      <c r="C526" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="D526" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E526" s="13"/>
+      <c r="D526" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="n">
@@ -10904,13 +10886,13 @@
       <c r="B527" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C527" s="6" t="n">
+      <c r="C527" s="4" t="n">
         <v>451</v>
       </c>
-      <c r="D527" s="16" t="s">
+      <c r="D527" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="E527" s="13"/>
+      <c r="E527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="n">
@@ -10919,13 +10901,13 @@
       <c r="B528" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="C528" s="6" t="n">
+      <c r="C528" s="4" t="n">
         <v>452</v>
       </c>
       <c r="D528" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="E528" s="13"/>
+      <c r="E528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="n">
@@ -10934,13 +10916,13 @@
       <c r="B529" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="C529" s="6" t="n">
+      <c r="C529" s="4" t="n">
         <v>453</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="E529" s="13"/>
+      <c r="E529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="n">
@@ -10949,13 +10931,13 @@
       <c r="B530" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="C530" s="6" t="n">
+      <c r="C530" s="4" t="n">
         <v>454</v>
       </c>
       <c r="D530" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="E530" s="13"/>
+      <c r="E530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="n">
@@ -10964,13 +10946,13 @@
       <c r="B531" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="C531" s="6" t="n">
+      <c r="C531" s="4" t="n">
         <v>455</v>
       </c>
-      <c r="D531" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E531" s="13"/>
+      <c r="D531" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="n">
@@ -10979,28 +10961,28 @@
       <c r="B532" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="C532" s="6" t="n">
+      <c r="C532" s="4" t="n">
         <v>456</v>
       </c>
       <c r="D532" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="E532" s="13"/>
+      <c r="E532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="14" t="n">
+      <c r="A533" s="11" t="n">
         <v>503</v>
       </c>
-      <c r="B533" s="11" t="s">
+      <c r="B533" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="C533" s="15" t="n">
+      <c r="C533" s="11" t="n">
         <v>457</v>
       </c>
-      <c r="D533" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E533" s="13"/>
+      <c r="D533" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="n">
@@ -11009,13 +10991,13 @@
       <c r="B534" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="C534" s="6" t="n">
+      <c r="C534" s="4" t="n">
         <v>458</v>
       </c>
       <c r="D534" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="E534" s="13"/>
+      <c r="E534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="n">
@@ -11024,13 +11006,13 @@
       <c r="B535" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="C535" s="6" t="n">
+      <c r="C535" s="4" t="n">
         <v>459</v>
       </c>
       <c r="D535" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="E535" s="13"/>
+      <c r="E535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="n">
@@ -11039,13 +11021,13 @@
       <c r="B536" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="C536" s="6" t="n">
+      <c r="C536" s="4" t="n">
         <v>460</v>
       </c>
-      <c r="D536" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E536" s="13"/>
+      <c r="D536" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="n">
@@ -11054,13 +11036,13 @@
       <c r="B537" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C537" s="6" t="n">
+      <c r="C537" s="4" t="n">
         <v>461</v>
       </c>
       <c r="D537" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="E537" s="13"/>
+      <c r="E537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="n">
@@ -11069,13 +11051,13 @@
       <c r="B538" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="C538" s="6" t="n">
+      <c r="C538" s="4" t="n">
         <v>462</v>
       </c>
-      <c r="D538" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E538" s="13"/>
+      <c r="D538" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="n">
@@ -11084,13 +11066,13 @@
       <c r="B539" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="C539" s="6" t="n">
+      <c r="C539" s="4" t="n">
         <v>463</v>
       </c>
-      <c r="D539" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E539" s="13"/>
+      <c r="D539" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="n">
@@ -11099,13 +11081,13 @@
       <c r="B540" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="C540" s="6" t="n">
+      <c r="C540" s="4" t="n">
         <v>464</v>
       </c>
-      <c r="D540" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E540" s="13"/>
+      <c r="D540" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="n">
@@ -11114,13 +11096,13 @@
       <c r="B541" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="C541" s="6" t="n">
+      <c r="C541" s="4" t="n">
         <v>465</v>
       </c>
-      <c r="D541" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E541" s="13"/>
+      <c r="D541" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="n">
@@ -11129,13 +11111,13 @@
       <c r="B542" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="C542" s="6" t="n">
+      <c r="C542" s="4" t="n">
         <v>466</v>
       </c>
       <c r="D542" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E542" s="13"/>
+      <c r="E542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="n">
@@ -11144,13 +11126,13 @@
       <c r="B543" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C543" s="6" t="n">
+      <c r="C543" s="4" t="n">
         <v>467</v>
       </c>
-      <c r="D543" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E543" s="13"/>
+      <c r="D543" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="n">
@@ -11159,13 +11141,13 @@
       <c r="B544" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C544" s="6" t="n">
+      <c r="C544" s="4" t="n">
         <v>468</v>
       </c>
       <c r="D544" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="E544" s="13"/>
+      <c r="E544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="n">
@@ -11174,13 +11156,13 @@
       <c r="B545" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="C545" s="6" t="n">
+      <c r="C545" s="4" t="n">
         <v>469</v>
       </c>
-      <c r="D545" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E545" s="13"/>
+      <c r="D545" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="n">
@@ -11189,13 +11171,13 @@
       <c r="B546" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="C546" s="6" t="n">
+      <c r="C546" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="D546" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E546" s="13"/>
+      <c r="D546" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="n">
@@ -11204,13 +11186,13 @@
       <c r="B547" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C547" s="6" t="n">
+      <c r="C547" s="4" t="n">
         <v>471</v>
       </c>
-      <c r="D547" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E547" s="13"/>
+      <c r="D547" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="n">
@@ -11219,13 +11201,13 @@
       <c r="B548" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="C548" s="6" t="n">
+      <c r="C548" s="4" t="n">
         <v>472</v>
       </c>
-      <c r="D548" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E548" s="13"/>
+      <c r="D548" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="n">
@@ -11234,13 +11216,13 @@
       <c r="B549" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="C549" s="6" t="n">
+      <c r="C549" s="4" t="n">
         <v>473</v>
       </c>
-      <c r="D549" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E549" s="13"/>
+      <c r="D549" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="n">
@@ -11249,28 +11231,28 @@
       <c r="B550" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="C550" s="6" t="n">
+      <c r="C550" s="4" t="n">
         <v>474</v>
       </c>
-      <c r="D550" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E550" s="13"/>
+      <c r="D550" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="14" t="n">
+      <c r="A551" s="11" t="n">
         <v>521</v>
       </c>
-      <c r="B551" s="11" t="s">
+      <c r="B551" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="C551" s="15" t="n">
+      <c r="C551" s="11" t="n">
         <v>475</v>
       </c>
-      <c r="D551" s="11" t="s">
+      <c r="D551" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E551" s="13"/>
+      <c r="E551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="n">
@@ -11279,13 +11261,13 @@
       <c r="B552" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="C552" s="6" t="n">
+      <c r="C552" s="4" t="n">
         <v>476</v>
       </c>
-      <c r="D552" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E552" s="13"/>
+      <c r="D552" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="n">
@@ -11294,13 +11276,13 @@
       <c r="B553" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="C553" s="6" t="n">
+      <c r="C553" s="4" t="n">
         <v>477</v>
       </c>
       <c r="D553" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="E553" s="13"/>
+      <c r="E553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="n">
@@ -11309,13 +11291,13 @@
       <c r="B554" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="C554" s="6" t="n">
+      <c r="C554" s="4" t="n">
         <v>478</v>
       </c>
-      <c r="D554" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E554" s="13"/>
+      <c r="D554" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="n">
@@ -11324,13 +11306,13 @@
       <c r="B555" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="C555" s="6" t="n">
+      <c r="C555" s="4" t="n">
         <v>479</v>
       </c>
-      <c r="D555" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E555" s="13"/>
+      <c r="D555" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="n">
@@ -11339,13 +11321,13 @@
       <c r="B556" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="C556" s="6" t="n">
+      <c r="C556" s="4" t="n">
         <v>480</v>
       </c>
       <c r="D556" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="E556" s="13"/>
+      <c r="E556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="n">
@@ -11354,13 +11336,13 @@
       <c r="B557" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C557" s="6" t="n">
+      <c r="C557" s="4" t="n">
         <v>481</v>
       </c>
-      <c r="D557" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E557" s="13"/>
+      <c r="D557" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="n">
@@ -11369,13 +11351,13 @@
       <c r="B558" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="C558" s="6" t="n">
+      <c r="C558" s="4" t="n">
         <v>482</v>
       </c>
       <c r="D558" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E558" s="13"/>
+      <c r="E558" s="10"/>
     </row>
     <row r="559" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="n">
@@ -11384,13 +11366,13 @@
       <c r="B559" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="C559" s="6" t="n">
+      <c r="C559" s="4" t="n">
         <v>483</v>
       </c>
       <c r="D559" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="E559" s="13"/>
+      <c r="E559" s="10"/>
     </row>
     <row r="560" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="n">
@@ -11399,13 +11381,13 @@
       <c r="B560" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="C560" s="8" t="s">
+      <c r="C560" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D560" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="E560" s="13"/>
+      <c r="E560" s="10"/>
     </row>
     <row r="561" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="n">
@@ -11414,13 +11396,13 @@
       <c r="B561" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="C561" s="6" t="n">
+      <c r="C561" s="4" t="n">
         <v>484</v>
       </c>
       <c r="D561" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="E561" s="13"/>
+      <c r="E561" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
